--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{797ABB4E-0FA3-442E-A89B-6650C57C0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB92B30-D339-4F3D-A859-E49F213EEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="375">
   <si>
     <t>學生姓名</t>
   </si>
@@ -1214,6 +1214,10 @@
   </si>
   <si>
     <t>D3210989</t>
+  </si>
+  <si>
+    <t>學分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1307,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,20 +1324,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2238,7 +2241,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2254,7 +2257,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2262,7 +2265,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2270,7 +2273,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2278,7 +2281,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2286,7 +2289,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2294,7 +2297,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>304</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2318,7 +2321,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>305</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2326,7 +2329,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2342,7 +2345,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>307</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2350,7 +2353,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>308</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2358,7 +2361,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2366,7 +2369,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>310</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2384,10 +2387,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N999"/>
+  <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
@@ -2400,51 +2403,54 @@
     <col min="14" max="14" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="27.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="25">
+      <c r="O1" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25">
       <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
@@ -2483,8 +2489,11 @@
       <c r="N2" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="25">
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25">
       <c r="A3" s="5" t="s">
         <v>186</v>
       </c>
@@ -2519,8 +2528,11 @@
       <c r="N3" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="25">
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25">
       <c r="A4" s="5" t="s">
         <v>189</v>
       </c>
@@ -2563,8 +2575,11 @@
       <c r="N4" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="25">
       <c r="A5" s="5" t="s">
         <v>192</v>
       </c>
@@ -2603,8 +2618,11 @@
       <c r="N5" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="25">
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25">
       <c r="A6" s="5" t="s">
         <v>110</v>
       </c>
@@ -2647,8 +2665,11 @@
       <c r="N6" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="25">
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25">
       <c r="A7" s="5" t="s">
         <v>119</v>
       </c>
@@ -2683,8 +2704,11 @@
       <c r="N7" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="25">
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="25">
       <c r="A8" s="5" t="s">
         <v>112</v>
       </c>
@@ -2727,8 +2751,11 @@
       <c r="N8" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="25">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="25">
       <c r="A9" s="5" t="s">
         <v>202</v>
       </c>
@@ -2767,8 +2794,11 @@
       <c r="N9" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="25">
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25">
       <c r="A10" s="5" t="s">
         <v>205</v>
       </c>
@@ -2807,8 +2837,11 @@
       <c r="N10" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="25">
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="25">
       <c r="A11" s="5" t="s">
         <v>208</v>
       </c>
@@ -2847,8 +2880,11 @@
       <c r="N11" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="25">
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="25">
       <c r="A12" s="5" t="s">
         <v>211</v>
       </c>
@@ -2887,8 +2923,11 @@
       <c r="N12" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="25">
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="25">
       <c r="A13" s="5" t="s">
         <v>214</v>
       </c>
@@ -2927,8 +2966,11 @@
       <c r="N13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="25">
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="25">
       <c r="A14" s="5" t="s">
         <v>116</v>
       </c>
@@ -2947,7 +2989,7 @@
       <c r="F14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>306</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2971,8 +3013,11 @@
       <c r="N14" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="25">
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="25">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
@@ -3011,8 +3056,11 @@
       <c r="N15" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="25">
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="25">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -3051,8 +3099,11 @@
       <c r="N16" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="25">
       <c r="A17" s="5" t="s">
         <v>223</v>
       </c>
@@ -3087,8 +3138,11 @@
       <c r="N17" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="25">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="25">
       <c r="A18" s="5" t="s">
         <v>226</v>
       </c>
@@ -3127,8 +3181,11 @@
       <c r="N18" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="25">
+      <c r="O18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="25">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -3167,8 +3224,11 @@
       <c r="N19" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="25">
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="25">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -3207,8 +3267,11 @@
       <c r="N20" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="25">
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25">
       <c r="A21" s="5" t="s">
         <v>132</v>
       </c>
@@ -3251,8 +3314,11 @@
       <c r="N21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="25">
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="25">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
@@ -3287,8 +3353,11 @@
       <c r="N22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="25">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="25">
       <c r="A23" s="5" t="s">
         <v>137</v>
       </c>
@@ -3331,8 +3400,11 @@
       <c r="N23" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="25">
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="25">
       <c r="A24" s="5" t="s">
         <v>140</v>
       </c>
@@ -3367,8 +3439,11 @@
       <c r="N24" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="25">
+      <c r="O24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="25">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -3407,8 +3482,11 @@
       <c r="N25" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="25">
+      <c r="O25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="25">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
@@ -3443,8 +3521,11 @@
       <c r="N26" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="25">
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="25">
       <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
@@ -3483,8 +3564,11 @@
       <c r="N27" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="25">
+      <c r="O27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="25">
       <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
@@ -3523,8 +3607,11 @@
       <c r="N28" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="25">
+      <c r="O28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="25">
       <c r="A29" s="5" t="s">
         <v>156</v>
       </c>
@@ -3567,8 +3654,11 @@
       <c r="N29" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="25">
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="25">
       <c r="A30" s="5" t="s">
         <v>159</v>
       </c>
@@ -3607,8 +3697,11 @@
       <c r="N30" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="25">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="25">
       <c r="A31" s="5" t="s">
         <v>162</v>
       </c>
@@ -3643,8 +3736,11 @@
       <c r="N31" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="25">
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25">
       <c r="A32" s="5" t="s">
         <v>165</v>
       </c>
@@ -3683,8 +3779,11 @@
       <c r="N32" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="25">
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="25">
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
@@ -3719,8 +3818,11 @@
       <c r="N33" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="25">
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="25">
       <c r="A34" s="5" t="s">
         <v>172</v>
       </c>
@@ -3759,8 +3861,11 @@
       <c r="N34" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="25">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="25">
       <c r="A35" s="5" t="s">
         <v>176</v>
       </c>
@@ -3795,8 +3900,11 @@
       <c r="N35" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="25">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="25">
       <c r="A36" s="5" t="s">
         <v>179</v>
       </c>
@@ -3839,8 +3947,11 @@
       <c r="N36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="25">
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="25">
       <c r="A37" s="5" t="s">
         <v>230</v>
       </c>
@@ -3875,8 +3986,11 @@
       <c r="N37" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="25">
+      <c r="O37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="25">
       <c r="A38" s="5" t="s">
         <v>235</v>
       </c>
@@ -3915,8 +4029,11 @@
       <c r="N38" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="25">
+      <c r="O38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="25">
       <c r="A39" s="5" t="s">
         <v>156</v>
       </c>
@@ -3935,7 +4052,7 @@
       <c r="F39" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="9" t="s">
         <v>306</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -3953,8 +4070,11 @@
       <c r="N39" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="25">
+      <c r="O39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="25">
       <c r="A40" s="5" t="s">
         <v>242</v>
       </c>
@@ -3993,8 +4113,11 @@
       <c r="N40" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="25">
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="25">
       <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
@@ -4019,7 +4142,7 @@
       <c r="H41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="9" t="s">
         <v>301</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -4037,8 +4160,11 @@
       <c r="N41" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="25">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="25">
       <c r="A42" s="5" t="s">
         <v>251</v>
       </c>
@@ -4075,8 +4201,11 @@
       <c r="N42" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="25">
+      <c r="O42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="25">
       <c r="A43" s="5" t="s">
         <v>179</v>
       </c>
@@ -4111,8 +4240,11 @@
       <c r="N43" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="25">
+      <c r="O43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="25">
       <c r="A44" s="5" t="s">
         <v>259</v>
       </c>
@@ -4149,8 +4281,11 @@
       <c r="N44" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="25">
+      <c r="O44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="25">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -4189,8 +4324,11 @@
       <c r="N45" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="25">
+      <c r="O45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="25">
       <c r="A46" s="5" t="s">
         <v>266</v>
       </c>
@@ -4227,8 +4365,11 @@
       <c r="N46" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="25">
+      <c r="O46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="25">
       <c r="A47" s="5" t="s">
         <v>270</v>
       </c>
@@ -4263,8 +4404,11 @@
       <c r="N47" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="25">
+      <c r="O47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="25">
       <c r="A48" s="5" t="s">
         <v>274</v>
       </c>
@@ -4303,8 +4447,11 @@
       <c r="N48" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="25">
+      <c r="O48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="25">
       <c r="A49" s="5" t="s">
         <v>278</v>
       </c>
@@ -4323,7 +4470,7 @@
       <c r="F49" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="9" t="s">
         <v>301</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -4341,8 +4488,11 @@
       <c r="N49" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="25">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="25">
       <c r="A50" s="5" t="s">
         <v>282</v>
       </c>
@@ -4377,8 +4527,11 @@
       <c r="N50" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="25">
+      <c r="O50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="25">
       <c r="A51" s="5" t="s">
         <v>286</v>
       </c>
@@ -4417,8 +4570,11 @@
       <c r="N51" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="25">
+      <c r="O51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="25">
       <c r="A52" s="5" t="s">
         <v>290</v>
       </c>
@@ -4453,8 +4609,11 @@
       <c r="N52" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="25">
+      <c r="O52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="25">
       <c r="A53" s="5" t="s">
         <v>294</v>
       </c>
@@ -4493,8 +4652,11 @@
       <c r="N53" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4510,7 +4672,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4526,7 +4688,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4542,7 +4704,7 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4558,7 +4720,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4574,7 +4736,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4590,7 +4752,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4606,7 +4768,7 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4622,7 +4784,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4638,7 +4800,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4654,7 +4816,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB92B30-D339-4F3D-A859-E49F213EEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D396CD9-CFCA-4D31-9C83-EC5D9FB38D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="388">
   <si>
     <t>學生姓名</t>
   </si>
@@ -109,9 +109,6 @@
     <t>T1234562</t>
   </si>
   <si>
-    <t>鄭小莉</t>
-  </si>
-  <si>
     <t>A9876538</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>T1234555</t>
-  </si>
-  <si>
-    <t>蔡小華</t>
   </si>
   <si>
     <t>A9876531</t>
@@ -1033,39 +1027,9 @@
     <t>李小華</t>
   </si>
   <si>
-    <t>D7654321</t>
-  </si>
-  <si>
     <t>陳大仁</t>
   </si>
   <si>
-    <t>D2345678</t>
-  </si>
-  <si>
-    <t>林小玲</t>
-  </si>
-  <si>
-    <t>D8765432</t>
-  </si>
-  <si>
-    <t>D3456789</t>
-  </si>
-  <si>
-    <t>張志強</t>
-  </si>
-  <si>
-    <t>D9876543</t>
-  </si>
-  <si>
-    <t>劉小妍</t>
-  </si>
-  <si>
-    <t>D4567890</t>
-  </si>
-  <si>
-    <t>D5432109</t>
-  </si>
-  <si>
     <t>D6543210</t>
   </si>
   <si>
@@ -1075,12 +1039,6 @@
     <t>D2109876</t>
   </si>
   <si>
-    <t>D1098765</t>
-  </si>
-  <si>
-    <t>D0987654</t>
-  </si>
-  <si>
     <t>D7654320</t>
   </si>
   <si>
@@ -1123,12 +1081,6 @@
     <t>D5432190</t>
   </si>
   <si>
-    <t>張國華</t>
-  </si>
-  <si>
-    <t>D4321067</t>
-  </si>
-  <si>
     <t>劉家榮</t>
   </si>
   <si>
@@ -1165,9 +1117,6 @@
     <t>D3210864</t>
   </si>
   <si>
-    <t>D4321095</t>
-  </si>
-  <si>
     <t>蔡家瑩</t>
   </si>
   <si>
@@ -1208,23 +1157,116 @@
   </si>
   <si>
     <t>D5432165</t>
-  </si>
-  <si>
-    <t>林奕辰</t>
-  </si>
-  <si>
-    <t>D3210989</t>
   </si>
   <si>
     <t>學分</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7654321</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2345678</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0987654</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表\D1234567.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654321.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2345678.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543210.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210987.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109876.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D0987654.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654320.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543201.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432167.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D4321098.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210986.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543217.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432190.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109873.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210975.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765431.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432156.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654324.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210864.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109872.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765409.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432198.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876506.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654312.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543203.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432165.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1284,6 +1326,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1308,10 +1358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1337,9 +1388,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1555,13 +1608,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1571,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1583,9 +1639,11 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1593,12 +1651,14 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1606,12 +1666,14 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1619,12 +1681,14 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1632,12 +1696,14 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1645,12 +1711,14 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>364</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1658,12 +1726,14 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>365</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1671,12 +1741,14 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>366</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1684,12 +1756,14 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1697,12 +1771,14 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1710,12 +1786,14 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1723,12 +1801,14 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>319</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1736,244 +1816,224 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>324</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="C20" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="C21" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="C22" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="C24" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="C25" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="C26" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="C29" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>373</v>
+      <c r="C30" s="11" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E4DDE1D8-6446-4F60-A395-6A56D2961077}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{25D814AA-057D-4FD9-8086-A58B789874B0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B2591132-7001-4E67-A04B-D1A0FEA2A9A6}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0AB20565-D4F9-4C76-AA94-0C304D5A4B9E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{54A846D7-5E17-40BA-8BF4-635198A5C02B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7DD27130-1391-464C-841F-34E51B079500}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{132D4832-90D3-4FD9-B721-20814730B739}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{38B3B887-5939-469E-A38D-9CE888E7E142}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{87B9965E-2AE5-4920-8DE0-F6C93FC82236}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E9EBEEE7-4348-4D64-93DF-CED86864D532}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{75DCA3EB-38DE-409A-9EDE-F319A9332F6A}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{FA7D31FD-5122-4DF3-9FAC-C8ED95A2791E}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A59615CD-A81B-4346-808D-8323B527C772}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{0262EBE0-9B8C-47DD-9847-20191A019443}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{09069171-0D20-4178-B1BB-FA33501CB054}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{5B36B684-1788-46AC-BEA0-B63D9B8639EF}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{3871F35F-AEAD-4ACF-B693-7763697376E0}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{6DF967A7-2776-47CD-B505-3B39650DD259}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{E17D4241-B94C-4B85-AFA8-AD6DA086FBA6}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{BE7B5E3A-D61B-4F04-8713-CD7C92D5E6EF}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{EDAAFF91-2C88-45A8-8C45-42BC6A40C193}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{3F94B0E1-DFCA-4792-84CB-CF24BA19DEE5}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{238FD634-0BF5-4DC5-80F5-9F5B7C9B177C}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{55640415-45CB-4146-B403-DF3F3BE849A7}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{18AD1FF0-B56F-4C5D-B343-D67649433CE3}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{A8D9DBEE-23D4-4FE2-A896-29D401DB32A5}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{B5585F83-E2CC-4927-B621-F5C86623A819}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{B71A4FFF-DE49-43D0-A753-93A4E5961E8B}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{05F460FF-93F4-4B01-948E-17588AEA74FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1999,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2072,10 +2132,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2083,10 +2143,10 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2094,10 +2154,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2105,10 +2165,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2116,10 +2176,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2127,10 +2187,10 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2138,10 +2198,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2149,10 +2209,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2160,10 +2220,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2171,10 +2231,10 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2182,10 +2242,10 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2193,10 +2253,10 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2229,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2242,7 +2302,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2258,7 +2318,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -2266,7 +2326,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2274,106 +2334,106 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2449,7 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
+    <sheetView topLeftCell="H43" workbookViewId="0">
       <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
@@ -2405,63 +2465,63 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5">
         <v>2584</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -2478,10 +2538,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M2" s="5">
         <v>60</v>
@@ -2495,16 +2555,16 @@
     </row>
     <row r="3" spans="1:15" ht="25">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5">
         <v>3845</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -2517,10 +2577,10 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" s="5">
         <v>50</v>
@@ -2534,16 +2594,16 @@
     </row>
     <row r="4" spans="1:15" ht="25">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5">
         <v>4927</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -2558,16 +2618,16 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M4" s="5">
         <v>40</v>
@@ -2581,16 +2641,16 @@
     </row>
     <row r="5" spans="1:15" ht="25">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5">
         <v>2468</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -2607,10 +2667,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="5">
         <v>45</v>
@@ -2624,16 +2684,16 @@
     </row>
     <row r="6" spans="1:15" ht="25">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5">
         <v>1759</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
@@ -2642,10 +2702,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
@@ -2654,10 +2714,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M6" s="5">
         <v>55</v>
@@ -2671,16 +2731,16 @@
     </row>
     <row r="7" spans="1:15" ht="25">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5">
         <v>8963</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>26</v>
@@ -2693,10 +2753,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M7" s="5">
         <v>50</v>
@@ -2710,22 +2770,22 @@
     </row>
     <row r="8" spans="1:15" ht="25">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="5">
         <v>4157</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>8</v>
@@ -2734,16 +2794,16 @@
         <v>9</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M8" s="5">
         <v>40</v>
@@ -2757,36 +2817,36 @@
     </row>
     <row r="9" spans="1:15" ht="25">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="5">
         <v>7631</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" s="5">
         <v>45</v>
@@ -2800,36 +2860,36 @@
     </row>
     <row r="10" spans="1:15" ht="25">
       <c r="A10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="5">
         <v>5276</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M10" s="5">
         <v>50</v>
@@ -2843,22 +2903,22 @@
     </row>
     <row r="11" spans="1:15" ht="25">
       <c r="A11" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="5">
         <v>8194</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2869,10 +2929,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M11" s="5">
         <v>45</v>
@@ -2886,16 +2946,16 @@
     </row>
     <row r="12" spans="1:15" ht="25">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" s="5">
         <v>2986</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>22</v>
@@ -2912,10 +2972,10 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M12" s="5">
         <v>50</v>
@@ -2929,36 +2989,36 @@
     </row>
     <row r="13" spans="1:15" ht="25">
       <c r="A13" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="5">
         <v>6872</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M13" s="5">
         <v>40</v>
@@ -2972,40 +3032,40 @@
     </row>
     <row r="14" spans="1:15" ht="25">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5">
         <v>4361</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M14" s="5">
         <v>50</v>
@@ -3019,36 +3079,36 @@
     </row>
     <row r="15" spans="1:15" ht="25">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="5">
         <v>7423</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M15" s="5">
         <v>45</v>
@@ -3062,36 +3122,36 @@
     </row>
     <row r="16" spans="1:15" ht="25">
       <c r="A16" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="5">
         <v>8530</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M16" s="5">
         <v>50</v>
@@ -3105,32 +3165,32 @@
     </row>
     <row r="17" spans="1:15" ht="25">
       <c r="A17" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" s="5">
         <v>1958</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M17" s="5">
         <v>40</v>
@@ -3144,36 +3204,36 @@
     </row>
     <row r="18" spans="1:15" ht="25">
       <c r="A18" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="5">
         <v>4765</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M18" s="5">
         <v>50</v>
@@ -3187,36 +3247,36 @@
     </row>
     <row r="19" spans="1:15" ht="25">
       <c r="A19" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5">
         <v>2473</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M19" s="5">
         <v>40</v>
@@ -3230,22 +3290,22 @@
     </row>
     <row r="20" spans="1:15" ht="25">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="5">
         <v>5864</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>24</v>
@@ -3256,10 +3316,10 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M20" s="5">
         <v>50</v>
@@ -3273,22 +3333,22 @@
     </row>
     <row r="21" spans="1:15" ht="25">
       <c r="A21" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5">
         <v>4731</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -3303,10 +3363,10 @@
         <v>13</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M21" s="5">
         <v>45</v>
@@ -3320,16 +3380,16 @@
     </row>
     <row r="22" spans="1:15" ht="25">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5">
         <v>1562</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>26</v>
@@ -3342,10 +3402,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M22" s="5">
         <v>60</v>
@@ -3359,40 +3419,40 @@
     </row>
     <row r="23" spans="1:15" ht="25">
       <c r="A23" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="5">
         <v>2365</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M23" s="5">
         <v>55</v>
@@ -3406,32 +3466,32 @@
     </row>
     <row r="24" spans="1:15" ht="25">
       <c r="A24" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5">
         <v>1849</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M24" s="5">
         <v>50</v>
@@ -3445,36 +3505,36 @@
     </row>
     <row r="25" spans="1:15" ht="25">
       <c r="A25" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5">
         <v>3827</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M25" s="5">
         <v>40</v>
@@ -3488,16 +3548,16 @@
     </row>
     <row r="26" spans="1:15" ht="25">
       <c r="A26" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="5">
         <v>9584</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -3510,10 +3570,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M26" s="5">
         <v>45</v>
@@ -3527,16 +3587,16 @@
     </row>
     <row r="27" spans="1:15" ht="25">
       <c r="A27" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5">
         <v>5763</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -3553,10 +3613,10 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="5">
         <v>50</v>
@@ -3570,16 +3630,16 @@
     </row>
     <row r="28" spans="1:15" ht="25">
       <c r="A28" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5">
         <v>7642</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>6</v>
@@ -3596,10 +3656,10 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M28" s="5">
         <v>45</v>
@@ -3613,16 +3673,16 @@
     </row>
     <row r="29" spans="1:15" ht="25">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="5">
         <v>3641</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>22</v>
@@ -3631,22 +3691,22 @@
         <v>23</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M29" s="5">
         <v>50</v>
@@ -3660,36 +3720,36 @@
     </row>
     <row r="30" spans="1:15" ht="25">
       <c r="A30" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5">
         <v>7546</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M30" s="5">
         <v>60</v>
@@ -3703,16 +3763,16 @@
     </row>
     <row r="31" spans="1:15" ht="25">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B31" s="5">
         <v>8430</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -3725,10 +3785,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M31" s="5">
         <v>45</v>
@@ -3742,22 +3802,22 @@
     </row>
     <row r="32" spans="1:15" ht="25">
       <c r="A32" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5">
         <v>2745</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>16</v>
@@ -3768,10 +3828,10 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M32" s="5">
         <v>50</v>
@@ -3785,32 +3845,32 @@
     </row>
     <row r="33" spans="1:15" ht="25">
       <c r="A33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="5">
         <v>1987</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M33" s="5">
         <v>60</v>
@@ -3824,36 +3884,36 @@
     </row>
     <row r="34" spans="1:15" ht="25">
       <c r="A34" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="5">
         <v>2974</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M34" s="5">
         <v>40</v>
@@ -3867,32 +3927,32 @@
     </row>
     <row r="35" spans="1:15" ht="25">
       <c r="A35" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5">
         <v>8126</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M35" s="5">
         <v>55</v>
@@ -3906,40 +3966,40 @@
     </row>
     <row r="36" spans="1:15" ht="25">
       <c r="A36" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="5">
         <v>6395</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="L36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M36" s="5">
         <v>50</v>
@@ -3953,32 +4013,32 @@
     </row>
     <row r="37" spans="1:15" ht="25">
       <c r="A37" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="5">
         <v>8421</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M37" s="5">
         <v>40</v>
@@ -3992,36 +4052,36 @@
     </row>
     <row r="38" spans="1:15" ht="25">
       <c r="A38" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B38" s="5">
         <v>3741</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M38" s="5">
         <v>50</v>
@@ -4035,34 +4095,34 @@
     </row>
     <row r="39" spans="1:15" ht="25">
       <c r="A39" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5">
         <v>9823</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M39" s="5">
         <v>45</v>
@@ -4076,22 +4136,22 @@
     </row>
     <row r="40" spans="1:15" ht="25">
       <c r="A40" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5">
         <v>1675</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>20</v>
@@ -4102,10 +4162,10 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M40" s="5">
         <v>50</v>
@@ -4119,22 +4179,22 @@
     </row>
     <row r="41" spans="1:15" ht="25">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" s="5">
         <v>7436</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -4143,16 +4203,16 @@
         <v>13</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M41" s="5">
         <v>60</v>
@@ -4166,34 +4226,34 @@
     </row>
     <row r="42" spans="1:15" ht="25">
       <c r="A42" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B42" s="5">
         <v>5698</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="L42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M42" s="5">
         <v>40</v>
@@ -4207,32 +4267,32 @@
     </row>
     <row r="43" spans="1:15" ht="25">
       <c r="A43" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B43" s="5">
         <v>4217</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M43" s="5">
         <v>50</v>
@@ -4246,34 +4306,34 @@
     </row>
     <row r="44" spans="1:15" ht="25">
       <c r="A44" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B44" s="5">
         <v>2374</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M44" s="5">
         <v>50</v>
@@ -4287,22 +4347,22 @@
     </row>
     <row r="45" spans="1:15" ht="25">
       <c r="A45" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="5">
         <v>4823</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>20</v>
@@ -4313,10 +4373,10 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M45" s="5">
         <v>45</v>
@@ -4330,22 +4390,22 @@
     </row>
     <row r="46" spans="1:15" ht="25">
       <c r="A46" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B46" s="5">
         <v>9234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>16</v>
@@ -4354,10 +4414,10 @@
         <v>17</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M46" s="5">
         <v>50</v>
@@ -4371,32 +4431,32 @@
     </row>
     <row r="47" spans="1:15" ht="25">
       <c r="A47" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B47" s="5">
         <v>1573</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M47" s="5">
         <v>50</v>
@@ -4410,22 +4470,22 @@
     </row>
     <row r="48" spans="1:15" ht="25">
       <c r="A48" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" s="5">
         <v>7312</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>24</v>
@@ -4436,10 +4496,10 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M48" s="5">
         <v>40</v>
@@ -4453,34 +4513,34 @@
     </row>
     <row r="49" spans="1:15" ht="25">
       <c r="A49" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" s="5">
         <v>8642</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="L49" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M49" s="5">
         <v>55</v>
@@ -4494,32 +4554,32 @@
     </row>
     <row r="50" spans="1:15" ht="25">
       <c r="A50" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B50" s="5">
         <v>5328</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M50" s="5">
         <v>50</v>
@@ -4533,22 +4593,22 @@
     </row>
     <row r="51" spans="1:15" ht="25">
       <c r="A51" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B51" s="5">
         <v>7641</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>20</v>
@@ -4559,10 +4619,10 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M51" s="5">
         <v>40</v>
@@ -4576,32 +4636,32 @@
     </row>
     <row r="52" spans="1:15" ht="25">
       <c r="A52" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B52" s="5">
         <v>1982</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M52" s="5">
         <v>50</v>
@@ -4615,36 +4675,36 @@
     </row>
     <row r="53" spans="1:15" ht="25">
       <c r="A53" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B53" s="5">
         <v>4631</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M53" s="5">
         <v>45</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D396CD9-CFCA-4D31-9C83-EC5D9FB38D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B3A3B-F8BA-43D1-AB51-D06FB5E36423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="230" windowWidth="9710" windowHeight="9590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="402">
   <si>
     <t>學生姓名</t>
   </si>
@@ -136,12 +136,6 @@
     <t>A9876536</t>
   </si>
   <si>
-    <t>黃家豪</t>
-  </si>
-  <si>
-    <t>T1234559</t>
-  </si>
-  <si>
     <t>賴小偉</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
     <t>A9876534</t>
   </si>
   <si>
-    <t>劉志明</t>
-  </si>
-  <si>
-    <t>T1234557</t>
-  </si>
-  <si>
     <t>楊小玲</t>
   </si>
   <si>
@@ -338,7 +326,7 @@
   </si>
   <si>
     <t>個人課表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>星期一 08:00-10:00</t>
@@ -380,893 +368,891 @@
     <t>計算機網絡</t>
   </si>
   <si>
+    <t>心理學概論</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
+  </si>
+  <si>
+    <t>平時 20%、期中考 30%、期末考 50%</t>
+  </si>
+  <si>
+    <t>行銷學</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>本課程探討行銷理論、策略及其實務應用。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 25%、專題 25%</t>
+  </si>
+  <si>
+    <t>社會學導論</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>探討社會結構與社會行為的基本概念及研究方法。</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>介紹財務管理的基本原則與工具，分析企業財務決策。</t>
+  </si>
+  <si>
+    <t>企業管理</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>本課程涵蓋企業管理的各個領域，包括計劃、組織、控制。</t>
+  </si>
+  <si>
+    <t>國際貿易</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>介紹國際貿易的基本概念、理論及實務操作。</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>星期二 11:00-13:00</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>本課程探討文化的形成、發展及其社會影響。</t>
+  </si>
+  <si>
+    <t>法律導論</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>探討環境科學的基本概念及環境問題的解決方案。</t>
+  </si>
+  <si>
+    <t>教育心理學</t>
+  </si>
+  <si>
+    <t>星期五 08:00-10:00</t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
+  </si>
+  <si>
+    <t>醫學倫理</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>本課程探討醫學實踐中的倫理問題與道德決策。</t>
+  </si>
+  <si>
+    <t>企業社會責任</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
+    <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
+  </si>
+  <si>
+    <t>心理健康</t>
+  </si>
+  <si>
+    <t>B113</t>
+  </si>
+  <si>
+    <t>探討心理健康的概念、心理疾病及其預防措施。</t>
+  </si>
+  <si>
+    <t>藝術與文化</t>
+  </si>
+  <si>
+    <t>B114</t>
+  </si>
+  <si>
+    <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
+  </si>
+  <si>
+    <t>餐飲管理</t>
+  </si>
+  <si>
+    <t>星期五 15:00-17:00</t>
+  </si>
+  <si>
+    <t>B115</t>
+  </si>
+  <si>
+    <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
+  </si>
+  <si>
+    <t>體育與運動科學</t>
+  </si>
+  <si>
+    <t>B116</t>
+  </si>
+  <si>
+    <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 25%、實習 25%</t>
+  </si>
+  <si>
+    <t>音樂欣賞</t>
+  </si>
+  <si>
+    <t>B117</t>
+  </si>
+  <si>
+    <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
+  </si>
+  <si>
+    <t>數位行銷</t>
+  </si>
+  <si>
+    <t>星期三 08:00-10:00</t>
+  </si>
+  <si>
+    <t>B118</t>
+  </si>
+  <si>
+    <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
+  </si>
+  <si>
+    <t>程式設計入門</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
+  </si>
+  <si>
+    <t>數據庫管理系統</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
+  </si>
+  <si>
+    <t>網頁開發</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
+  </si>
+  <si>
+    <t>演算法設計</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>本課程探討軟體開發流程、工具及測試方法，增進團隊合作能力。</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
+  </si>
+  <si>
+    <t>平時 25%、期中考 25%、期末考 50%</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
+  </si>
+  <si>
+    <t>移動應用開發</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
+  </si>
+  <si>
+    <t>軟體測試</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
+  </si>
+  <si>
+    <t>網頁設計</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
+  </si>
+  <si>
+    <t>資訊安全</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
+  </si>
+  <si>
+    <t>物聯網</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
+  </si>
+  <si>
+    <t>虛擬實境</t>
+  </si>
+  <si>
+    <t>C116</t>
+  </si>
+  <si>
+    <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
+  </si>
+  <si>
+    <t>資訊倫理</t>
+  </si>
+  <si>
+    <t>星期二 14:00-16:00</t>
+  </si>
+  <si>
+    <t>C117</t>
+  </si>
+  <si>
+    <t>本課程探討資訊倫理的基本原則與法律問題。</t>
+  </si>
+  <si>
+    <t>環境科學導論</t>
+  </si>
+  <si>
+    <t>C201</t>
+  </si>
+  <si>
+    <t>黃世仁</t>
+  </si>
+  <si>
+    <t>B7654321</t>
+  </si>
+  <si>
+    <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
+  </si>
+  <si>
+    <t>美術欣賞</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>B7654322</t>
+  </si>
+  <si>
+    <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>B7654323</t>
+  </si>
+  <si>
+    <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>
+  </si>
+  <si>
+    <t>行為科學</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>張大明</t>
+  </si>
+  <si>
+    <t>B7654324</t>
+  </si>
+  <si>
+    <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>王小華</t>
+  </si>
+  <si>
+    <t>B7654325</t>
+  </si>
+  <si>
+    <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
+  </si>
+  <si>
+    <t>企業行為</t>
+  </si>
+  <si>
+    <t>C206</t>
+  </si>
+  <si>
+    <t>B7654326</t>
+  </si>
+  <si>
+    <t>研究企業內部的行為模式及其對組織效能的影響。</t>
+  </si>
+  <si>
+    <t>C207</t>
+  </si>
+  <si>
+    <t>張秀珍</t>
+  </si>
+  <si>
+    <t>B7654327</t>
+  </si>
+  <si>
+    <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
+  </si>
+  <si>
+    <t>機械設計</t>
+  </si>
+  <si>
+    <t>C208</t>
+  </si>
+  <si>
+    <t>B7654328</t>
+  </si>
+  <si>
+    <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
+  </si>
+  <si>
+    <t>C209</t>
+  </si>
+  <si>
+    <t>B7654329</t>
+  </si>
+  <si>
+    <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
+  </si>
+  <si>
+    <t>音樂與社會</t>
+  </si>
+  <si>
+    <t>C210</t>
+  </si>
+  <si>
+    <t>B7654330</t>
+  </si>
+  <si>
+    <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
+  </si>
+  <si>
+    <t>運動科學</t>
+  </si>
+  <si>
+    <t>C211</t>
+  </si>
+  <si>
+    <t>B7654331</t>
+  </si>
+  <si>
+    <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
+  </si>
+  <si>
+    <t>心理學研究方法</t>
+  </si>
+  <si>
+    <t>C212</t>
+  </si>
+  <si>
+    <t>B7654332</t>
+  </si>
+  <si>
+    <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
+  </si>
+  <si>
+    <t>食品科學</t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>B7654333</t>
+  </si>
+  <si>
+    <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
+  </si>
+  <si>
+    <t>數學與統計</t>
+  </si>
+  <si>
+    <t>C214</t>
+  </si>
+  <si>
+    <t>B7654334</t>
+  </si>
+  <si>
+    <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
+  </si>
+  <si>
+    <t>文學與社會</t>
+  </si>
+  <si>
+    <t>C215</t>
+  </si>
+  <si>
+    <t>B7654335</t>
+  </si>
+  <si>
+    <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
+  </si>
+  <si>
+    <t>供應鏈管理</t>
+  </si>
+  <si>
+    <t>C216</t>
+  </si>
+  <si>
+    <t>B7654336</t>
+  </si>
+  <si>
+    <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
+  </si>
+  <si>
+    <t>健康心理學</t>
+  </si>
+  <si>
+    <t>C217</t>
+  </si>
+  <si>
+    <t>B7654337</t>
+  </si>
+  <si>
+    <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
+  </si>
+  <si>
+    <t>劉小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭小莉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭小明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>許小英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴小偉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏小美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡小華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳小波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小妍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴小芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張小兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1234567</t>
+  </si>
+  <si>
+    <t>李小華</t>
+  </si>
+  <si>
+    <t>陳大仁</t>
+  </si>
+  <si>
+    <t>D6543210</t>
+  </si>
+  <si>
+    <t>D3210987</t>
+  </si>
+  <si>
+    <t>D2109876</t>
+  </si>
+  <si>
+    <t>D7654320</t>
+  </si>
+  <si>
+    <t>D6543201</t>
+  </si>
+  <si>
+    <t>D5432167</t>
+  </si>
+  <si>
+    <t>D4321098</t>
+  </si>
+  <si>
+    <t>陳美華</t>
+  </si>
+  <si>
+    <t>D3210986</t>
+  </si>
+  <si>
+    <t>陳欣怡</t>
+  </si>
+  <si>
+    <t>D1234560</t>
+  </si>
+  <si>
+    <t>王志明</t>
+  </si>
+  <si>
+    <t>D9876542</t>
+  </si>
+  <si>
+    <t>林志偉</t>
+  </si>
+  <si>
+    <t>D6543217</t>
+  </si>
+  <si>
+    <t>蔡明珠</t>
+  </si>
+  <si>
+    <t>D5432190</t>
+  </si>
+  <si>
+    <t>劉家榮</t>
+  </si>
+  <si>
+    <t>D2109873</t>
+  </si>
+  <si>
+    <t>鄭心怡</t>
+  </si>
+  <si>
+    <t>D3210975</t>
+  </si>
+  <si>
+    <t>吳俊傑</t>
+  </si>
+  <si>
+    <t>D8765431</t>
+  </si>
+  <si>
+    <t>陳美妍</t>
+  </si>
+  <si>
+    <t>D5432156</t>
+  </si>
+  <si>
+    <t>林佳儀</t>
+  </si>
+  <si>
+    <t>D7654324</t>
+  </si>
+  <si>
+    <t>蘇玉芳</t>
+  </si>
+  <si>
+    <t>D3210864</t>
+  </si>
+  <si>
+    <t>蔡家瑩</t>
+  </si>
+  <si>
+    <t>D2109872</t>
+  </si>
+  <si>
+    <t>陳文豪</t>
+  </si>
+  <si>
+    <t>D8765409</t>
+  </si>
+  <si>
+    <t>劉子彥</t>
+  </si>
+  <si>
+    <t>D5432198</t>
+  </si>
+  <si>
+    <t>張雅雯</t>
+  </si>
+  <si>
+    <t>D9876506</t>
+  </si>
+  <si>
+    <t>陳宥廷</t>
+  </si>
+  <si>
+    <t>D7654312</t>
+  </si>
+  <si>
+    <t>鄭家豪</t>
+  </si>
+  <si>
+    <t>D6543203</t>
+  </si>
+  <si>
+    <t>吳佳麟</t>
+  </si>
+  <si>
+    <t>D5432165</t>
+  </si>
+  <si>
+    <t>D7654321</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2345678</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0987654</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表\D1234567.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654321.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2345678.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543210.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210987.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109876.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D0987654.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654320.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543201.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432167.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D4321098.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210986.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543217.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432190.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109873.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210975.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765431.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432156.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654324.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210864.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109872.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765409.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432198.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876506.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654312.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543203.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432165.xlsx</t>
+  </si>
+  <si>
     <t>課堂助教1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>助教證號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>課堂助教</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>助教證號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="&quot;Google Sans&quot;"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理學概論</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
-  </si>
-  <si>
-    <t>平時 20%、期中考 30%、期末考 50%</t>
-  </si>
-  <si>
-    <t>行銷學</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>本課程探討行銷理論、策略及其實務應用。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 25%、專題 25%</t>
-  </si>
-  <si>
-    <t>社會學導論</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>探討社會結構與社會行為的基本概念及研究方法。</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
-    <t>介紹財務管理的基本原則與工具，分析企業財務決策。</t>
-  </si>
-  <si>
-    <t>企業管理</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
-    <t>本課程涵蓋企業管理的各個領域，包括計劃、組織、控制。</t>
-  </si>
-  <si>
-    <t>國際貿易</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>介紹國際貿易的基本概念、理論及實務操作。</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>星期二 11:00-13:00</t>
-  </si>
-  <si>
-    <t>B107</t>
-  </si>
-  <si>
-    <t>本課程探討文化的形成、發展及其社會影響。</t>
-  </si>
-  <si>
-    <t>法律導論</t>
-  </si>
-  <si>
-    <t>B108</t>
-  </si>
-  <si>
-    <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
-  </si>
-  <si>
-    <t>B109</t>
-  </si>
-  <si>
-    <t>探討環境科學的基本概念及環境問題的解決方案。</t>
-  </si>
-  <si>
-    <t>教育心理學</t>
-  </si>
-  <si>
-    <t>星期五 08:00-10:00</t>
-  </si>
-  <si>
-    <t>B110</t>
-  </si>
-  <si>
-    <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
-  </si>
-  <si>
-    <t>醫學倫理</t>
-  </si>
-  <si>
-    <t>B111</t>
-  </si>
-  <si>
-    <t>本課程探討醫學實踐中的倫理問題與道德決策。</t>
-  </si>
-  <si>
-    <t>企業社會責任</t>
-  </si>
-  <si>
-    <t>B112</t>
-  </si>
-  <si>
-    <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
-  </si>
-  <si>
-    <t>心理健康</t>
-  </si>
-  <si>
-    <t>B113</t>
-  </si>
-  <si>
-    <t>探討心理健康的概念、心理疾病及其預防措施。</t>
-  </si>
-  <si>
-    <t>藝術與文化</t>
-  </si>
-  <si>
-    <t>B114</t>
-  </si>
-  <si>
-    <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
-  </si>
-  <si>
-    <t>餐飲管理</t>
-  </si>
-  <si>
-    <t>星期五 15:00-17:00</t>
-  </si>
-  <si>
-    <t>B115</t>
-  </si>
-  <si>
-    <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
-  </si>
-  <si>
-    <t>體育與運動科學</t>
-  </si>
-  <si>
-    <t>B116</t>
-  </si>
-  <si>
-    <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 25%、實習 25%</t>
-  </si>
-  <si>
-    <t>音樂欣賞</t>
-  </si>
-  <si>
-    <t>B117</t>
-  </si>
-  <si>
-    <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
-  </si>
-  <si>
-    <t>數位行銷</t>
-  </si>
-  <si>
-    <t>星期三 08:00-10:00</t>
-  </si>
-  <si>
-    <t>B118</t>
-  </si>
-  <si>
-    <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
-  </si>
-  <si>
-    <t>程式設計入門</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
-  </si>
-  <si>
-    <t>數據庫管理系統</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
-  </si>
-  <si>
-    <t>網頁開發</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
-  </si>
-  <si>
-    <t>演算法設計</t>
-  </si>
-  <si>
-    <t>C104</t>
-  </si>
-  <si>
-    <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
-  </si>
-  <si>
-    <t>C105</t>
-  </si>
-  <si>
-    <t>本課程探討軟體開發流程、工具及測試方法，增進團隊合作能力。</t>
-  </si>
-  <si>
-    <t>C106</t>
-  </si>
-  <si>
-    <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
-  </si>
-  <si>
-    <t>平時 25%、期中考 25%、期末考 50%</t>
-  </si>
-  <si>
-    <t>C107</t>
-  </si>
-  <si>
-    <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
-  </si>
-  <si>
-    <t>移動應用開發</t>
-  </si>
-  <si>
-    <t>C108</t>
-  </si>
-  <si>
-    <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
-  </si>
-  <si>
-    <t>軟體測試</t>
-  </si>
-  <si>
-    <t>C109</t>
-  </si>
-  <si>
-    <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
-  </si>
-  <si>
-    <t>網頁設計</t>
-  </si>
-  <si>
-    <t>C110</t>
-  </si>
-  <si>
-    <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
-  </si>
-  <si>
-    <t>資訊安全</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
-    <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
-  </si>
-  <si>
-    <t>物聯網</t>
-  </si>
-  <si>
-    <t>C112</t>
-  </si>
-  <si>
-    <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
-  </si>
-  <si>
-    <t>C113</t>
-  </si>
-  <si>
-    <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
-  </si>
-  <si>
-    <t>C114</t>
-  </si>
-  <si>
-    <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
-  </si>
-  <si>
-    <t>C115</t>
-  </si>
-  <si>
-    <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
-  </si>
-  <si>
-    <t>虛擬實境</t>
-  </si>
-  <si>
-    <t>C116</t>
-  </si>
-  <si>
-    <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
-  </si>
-  <si>
-    <t>資訊倫理</t>
-  </si>
-  <si>
-    <t>星期二 14:00-16:00</t>
-  </si>
-  <si>
-    <t>C117</t>
-  </si>
-  <si>
-    <t>本課程探討資訊倫理的基本原則與法律問題。</t>
-  </si>
-  <si>
-    <t>環境科學導論</t>
-  </si>
-  <si>
-    <t>C201</t>
-  </si>
-  <si>
-    <t>黃世仁</t>
-  </si>
-  <si>
-    <t>B7654321</t>
-  </si>
-  <si>
-    <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
-  </si>
-  <si>
-    <t>美術欣賞</t>
-  </si>
-  <si>
-    <t>C202</t>
-  </si>
-  <si>
-    <t>B7654322</t>
-  </si>
-  <si>
-    <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
-  </si>
-  <si>
-    <t>C203</t>
-  </si>
-  <si>
-    <t>B7654323</t>
-  </si>
-  <si>
-    <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>
-  </si>
-  <si>
-    <t>行為科學</t>
-  </si>
-  <si>
-    <t>C204</t>
-  </si>
-  <si>
-    <t>張大明</t>
-  </si>
-  <si>
-    <t>B7654324</t>
-  </si>
-  <si>
-    <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
-  </si>
-  <si>
-    <t>C205</t>
-  </si>
-  <si>
-    <t>王小華</t>
-  </si>
-  <si>
-    <t>B7654325</t>
-  </si>
-  <si>
-    <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
-  </si>
-  <si>
-    <t>企業行為</t>
-  </si>
-  <si>
-    <t>C206</t>
-  </si>
-  <si>
-    <t>B7654326</t>
-  </si>
-  <si>
-    <t>研究企業內部的行為模式及其對組織效能的影響。</t>
-  </si>
-  <si>
-    <t>C207</t>
-  </si>
-  <si>
-    <t>張秀珍</t>
-  </si>
-  <si>
-    <t>B7654327</t>
-  </si>
-  <si>
-    <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
-  </si>
-  <si>
-    <t>機械設計</t>
-  </si>
-  <si>
-    <t>C208</t>
-  </si>
-  <si>
-    <t>B7654328</t>
-  </si>
-  <si>
-    <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
-  </si>
-  <si>
-    <t>C209</t>
-  </si>
-  <si>
-    <t>B7654329</t>
-  </si>
-  <si>
-    <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
-  </si>
-  <si>
-    <t>音樂與社會</t>
-  </si>
-  <si>
-    <t>C210</t>
-  </si>
-  <si>
-    <t>B7654330</t>
-  </si>
-  <si>
-    <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
-  </si>
-  <si>
-    <t>運動科學</t>
-  </si>
-  <si>
-    <t>C211</t>
-  </si>
-  <si>
-    <t>B7654331</t>
-  </si>
-  <si>
-    <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
-  </si>
-  <si>
-    <t>心理學研究方法</t>
-  </si>
-  <si>
-    <t>C212</t>
-  </si>
-  <si>
-    <t>B7654332</t>
-  </si>
-  <si>
-    <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
-  </si>
-  <si>
-    <t>食品科學</t>
-  </si>
-  <si>
-    <t>C213</t>
-  </si>
-  <si>
-    <t>B7654333</t>
-  </si>
-  <si>
-    <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
-  </si>
-  <si>
-    <t>數學與統計</t>
-  </si>
-  <si>
-    <t>C214</t>
-  </si>
-  <si>
-    <t>B7654334</t>
-  </si>
-  <si>
-    <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
-  </si>
-  <si>
-    <t>文學與社會</t>
-  </si>
-  <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>B7654335</t>
-  </si>
-  <si>
-    <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
-  </si>
-  <si>
-    <t>供應鏈管理</t>
-  </si>
-  <si>
-    <t>C216</t>
-  </si>
-  <si>
-    <t>B7654336</t>
-  </si>
-  <si>
-    <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
-  </si>
-  <si>
-    <t>健康心理學</t>
-  </si>
-  <si>
-    <t>C217</t>
-  </si>
-  <si>
-    <t>B7654337</t>
-  </si>
-  <si>
-    <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
-  </si>
-  <si>
-    <t>劉小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小亮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>助教證號1</t>
+  </si>
+  <si>
+    <t>課堂助教2</t>
+  </si>
+  <si>
+    <t>助教證號2</t>
+  </si>
+  <si>
+    <t>學分</t>
+  </si>
+  <si>
+    <t>蔡小華</t>
   </si>
   <si>
     <t>鄭小莉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭小明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>許小英</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴小偉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏小美</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡小華</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吳小波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小妍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴小芳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>張小兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1234567</t>
-  </si>
-  <si>
-    <t>李小華</t>
-  </si>
-  <si>
-    <t>陳大仁</t>
-  </si>
-  <si>
-    <t>D6543210</t>
-  </si>
-  <si>
-    <t>D3210987</t>
-  </si>
-  <si>
-    <t>D2109876</t>
-  </si>
-  <si>
-    <t>D7654320</t>
-  </si>
-  <si>
-    <t>D6543201</t>
-  </si>
-  <si>
-    <t>D5432167</t>
-  </si>
-  <si>
-    <t>D4321098</t>
-  </si>
-  <si>
-    <t>陳美華</t>
-  </si>
-  <si>
-    <t>D3210986</t>
-  </si>
-  <si>
-    <t>陳欣怡</t>
-  </si>
-  <si>
-    <t>D1234560</t>
-  </si>
-  <si>
-    <t>王志明</t>
-  </si>
-  <si>
-    <t>D9876542</t>
-  </si>
-  <si>
-    <t>林志偉</t>
-  </si>
-  <si>
-    <t>D6543217</t>
-  </si>
-  <si>
-    <t>蔡明珠</t>
-  </si>
-  <si>
-    <t>D5432190</t>
-  </si>
-  <si>
-    <t>劉家榮</t>
-  </si>
-  <si>
-    <t>D2109873</t>
-  </si>
-  <si>
-    <t>鄭心怡</t>
-  </si>
-  <si>
-    <t>D3210975</t>
-  </si>
-  <si>
-    <t>吳俊傑</t>
-  </si>
-  <si>
-    <t>D8765431</t>
-  </si>
-  <si>
-    <t>陳美妍</t>
-  </si>
-  <si>
-    <t>D5432156</t>
-  </si>
-  <si>
-    <t>林佳儀</t>
-  </si>
-  <si>
-    <t>D7654324</t>
-  </si>
-  <si>
-    <t>蘇玉芳</t>
-  </si>
-  <si>
-    <t>D3210864</t>
-  </si>
-  <si>
-    <t>蔡家瑩</t>
-  </si>
-  <si>
-    <t>D2109872</t>
-  </si>
-  <si>
-    <t>陳文豪</t>
-  </si>
-  <si>
-    <t>D8765409</t>
-  </si>
-  <si>
-    <t>劉子彥</t>
-  </si>
-  <si>
-    <t>D5432198</t>
-  </si>
-  <si>
-    <t>張雅雯</t>
-  </si>
-  <si>
-    <t>D9876506</t>
-  </si>
-  <si>
-    <t>陳宥廷</t>
-  </si>
-  <si>
-    <t>D7654312</t>
-  </si>
-  <si>
-    <t>鄭家豪</t>
-  </si>
-  <si>
-    <t>D6543203</t>
-  </si>
-  <si>
-    <t>吳佳麟</t>
-  </si>
-  <si>
-    <t>D5432165</t>
-  </si>
-  <si>
-    <t>學分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7654321</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2345678</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0987654</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人課表\D1234567.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654321.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2345678.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543210.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210987.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109876.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D0987654.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654320.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543201.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432167.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D4321098.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210986.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D1234560.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876542.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543217.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432190.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109873.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210975.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765431.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432156.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654324.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210864.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109872.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765409.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432198.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876506.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654312.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543203.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432165.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234567.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234566.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234565.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234564.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234563.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234562.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234561.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234558.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234556.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234555.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234554.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234553.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234552.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234551.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\T1234550.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1278,11 +1264,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1313,23 +1294,16 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="微軟正黑體"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1345,11 +1319,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1357,10 +1331,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1368,27 +1357,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1610,7 +1599,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1627,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1635,14 +1624,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>359</v>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1650,14 +1639,14 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>360</v>
+      <c r="A3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1665,14 +1654,14 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>361</v>
+      <c r="A4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1680,14 +1669,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>362</v>
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1695,14 +1684,14 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>363</v>
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1710,14 +1699,14 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>364</v>
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1725,14 +1714,14 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>365</v>
+      <c r="B8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1740,14 +1729,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>366</v>
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1755,14 +1744,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>367</v>
+      <c r="B10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1770,14 +1759,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>368</v>
+      <c r="B11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1785,14 +1774,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>369</v>
+      <c r="B12" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1800,14 +1789,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>370</v>
+      <c r="A13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1815,194 +1804,194 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C18" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="11" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="11" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C19" s="11" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E4DDE1D8-6446-4F60-A395-6A56D2961077}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{25D814AA-057D-4FD9-8086-A58B789874B0}"/>
@@ -2043,13 +2032,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2059,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2071,7 +2063,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -2082,7 +2076,9 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -2093,7 +2089,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -2104,7 +2102,9 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -2115,7 +2115,9 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -2126,7 +2128,9 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -2137,7 +2141,9 @@
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -2148,123 +2154,138 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2D5A90A8-3C97-4D59-8FC5-A90126739F27}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{707FF527-1FDF-41ED-8FF6-214A9DBA8E12}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C656A73C-0CD5-40A8-A206-697E915037C9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6045194F-6718-485B-BDCB-981BC6B81813}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CB61354D-96FC-4178-9B5E-3ECAA673DB40}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3E7D09B9-3EB0-406C-9845-4C2FD5265C9E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{6D179396-6C58-4EBA-A05C-F312F1106DF5}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3411F45A-D140-4859-94C9-A5E02F4D12B4}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D8D640B1-723B-439A-A5B8-62086EAA691E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{82815945-B65D-4363-B4D1-1B67A12A2141}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{EF924F7B-5B7A-4AFB-8512-FE358C5D9B7C}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{353CA016-AFB4-4EBA-89E8-66A26C66D263}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{06DA2F71-7392-4D66-91C7-EDDD451F50FB}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{07C2D357-B146-435C-8FE1-6353D43433B7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{633BB4B6-1AE9-4C17-B2BC-CE2B68D63219}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{95F39BBF-FCF1-4313-ADCF-3BE0208AB4F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2289,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2301,8 +2322,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>296</v>
+      <c r="A3" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2317,127 +2338,127 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>297</v>
+      <c r="A5" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>298</v>
+      <c r="A6" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>299</v>
+      <c r="A7" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>300</v>
+      <c r="A8" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>301</v>
+      <c r="A9" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>302</v>
+      <c r="A10" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>304</v>
+      <c r="A14" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2449,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
@@ -2463,2256 +2484,2266 @@
     <col min="14" max="14" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2584</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="11">
+        <v>60</v>
+      </c>
+      <c r="N2" s="11">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3845</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="11">
+        <v>50</v>
+      </c>
+      <c r="N3" s="11">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4927</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="11">
+        <v>40</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2468</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="11">
+        <v>45</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1759</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="11">
+        <v>55</v>
+      </c>
+      <c r="N6" s="11">
+        <v>8</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8963</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="11">
+        <v>50</v>
+      </c>
+      <c r="N7" s="11">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4157</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="11">
+        <v>40</v>
+      </c>
+      <c r="N8" s="11">
+        <v>5</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7631</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="11">
+        <v>45</v>
+      </c>
+      <c r="N9" s="11">
+        <v>12</v>
+      </c>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5276</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="11">
+        <v>50</v>
+      </c>
+      <c r="N10" s="11">
+        <v>10</v>
+      </c>
+      <c r="O10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8194</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="11">
+        <v>45</v>
+      </c>
+      <c r="N11" s="11">
+        <v>7</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2986</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="11">
+        <v>50</v>
+      </c>
+      <c r="N12" s="11">
+        <v>12</v>
+      </c>
+      <c r="O12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="11">
+        <v>40</v>
+      </c>
+      <c r="N13" s="11">
+        <v>10</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4361</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="11">
+        <v>50</v>
+      </c>
+      <c r="N14" s="11">
+        <v>15</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="11">
+        <v>7423</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="11">
+        <v>45</v>
+      </c>
+      <c r="N15" s="11">
+        <v>10</v>
+      </c>
+      <c r="O15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="11">
+        <v>8530</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="11">
+        <v>50</v>
+      </c>
+      <c r="N16" s="11">
+        <v>8</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="11">
+        <v>40</v>
+      </c>
+      <c r="N17" s="11">
+        <v>10</v>
+      </c>
+      <c r="O17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4765</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="11">
+        <v>50</v>
+      </c>
+      <c r="N18" s="11">
+        <v>12</v>
+      </c>
+      <c r="O18" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2473</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="11">
+        <v>40</v>
+      </c>
+      <c r="N19" s="11">
+        <v>15</v>
+      </c>
+      <c r="O19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B20" s="11">
+        <v>5864</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="E20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M20" s="11">
+        <v>50</v>
+      </c>
+      <c r="N20" s="11">
+        <v>10</v>
+      </c>
+      <c r="O20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4731</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="11">
+        <v>45</v>
+      </c>
+      <c r="N21" s="11">
+        <v>5</v>
+      </c>
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1562</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="11">
+        <v>60</v>
+      </c>
+      <c r="N22" s="11">
+        <v>20</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2365</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="11">
+        <v>55</v>
+      </c>
+      <c r="N23" s="11">
+        <v>12</v>
+      </c>
+      <c r="O23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1849</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="11">
+        <v>50</v>
+      </c>
+      <c r="N24" s="11">
+        <v>8</v>
+      </c>
+      <c r="O24" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3827</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="11">
+        <v>40</v>
+      </c>
+      <c r="N25" s="11">
+        <v>10</v>
+      </c>
+      <c r="O25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9584</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="11">
+        <v>45</v>
+      </c>
+      <c r="N26" s="11">
+        <v>5</v>
+      </c>
+      <c r="O26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5763</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="11">
+        <v>50</v>
+      </c>
+      <c r="N27" s="11">
+        <v>15</v>
+      </c>
+      <c r="O27" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="11">
+        <v>7642</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="11">
+        <v>45</v>
+      </c>
+      <c r="N28" s="11">
+        <v>7</v>
+      </c>
+      <c r="O28" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3641</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="11">
+        <v>50</v>
+      </c>
+      <c r="N29" s="11">
+        <v>12</v>
+      </c>
+      <c r="O29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="11">
+        <v>7546</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="11">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11">
+        <v>10</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8430</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="D31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="11">
+        <v>45</v>
+      </c>
+      <c r="N31" s="11">
+        <v>5</v>
+      </c>
+      <c r="O31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2745</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="11">
+        <v>50</v>
+      </c>
+      <c r="N32" s="11">
+        <v>10</v>
+      </c>
+      <c r="O32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A33" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1987</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="11">
+        <v>60</v>
+      </c>
+      <c r="N33" s="11">
+        <v>12</v>
+      </c>
+      <c r="O33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2974</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M34" s="11">
+        <v>40</v>
+      </c>
+      <c r="N34" s="11">
+        <v>8</v>
+      </c>
+      <c r="O34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A35" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="11">
+        <v>8126</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="11">
+        <v>55</v>
+      </c>
+      <c r="N35" s="11">
+        <v>10</v>
+      </c>
+      <c r="O35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6395</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="11">
+        <v>50</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1</v>
+      </c>
+      <c r="O36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A37" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="11">
+        <v>8421</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="11">
+        <v>40</v>
+      </c>
+      <c r="N37" s="11">
+        <v>12</v>
+      </c>
+      <c r="O37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A38" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3741</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="11">
+        <v>50</v>
+      </c>
+      <c r="N38" s="11">
+        <v>10</v>
+      </c>
+      <c r="O38" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A39" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="11">
+        <v>9823</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="11">
+        <v>45</v>
+      </c>
+      <c r="N39" s="11">
+        <v>8</v>
+      </c>
+      <c r="O39" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1675</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M40" s="11">
+        <v>50</v>
+      </c>
+      <c r="N40" s="11">
+        <v>15</v>
+      </c>
+      <c r="O40" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7436</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="11">
+        <v>60</v>
+      </c>
+      <c r="N41" s="11">
+        <v>12</v>
+      </c>
+      <c r="O41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="11">
+        <v>5698</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="11">
+        <v>40</v>
+      </c>
+      <c r="N42" s="11">
+        <v>10</v>
+      </c>
+      <c r="O42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A43" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="11">
+        <v>4217</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M43" s="11">
+        <v>50</v>
+      </c>
+      <c r="N43" s="11">
+        <v>8</v>
+      </c>
+      <c r="O43" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A44" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2374</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="11">
+        <v>50</v>
+      </c>
+      <c r="N44" s="11">
+        <v>12</v>
+      </c>
+      <c r="O44" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A45" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4823</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="11">
+        <v>45</v>
+      </c>
+      <c r="N45" s="11">
+        <v>10</v>
+      </c>
+      <c r="O45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="11">
+        <v>9234</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" s="11">
+        <v>50</v>
+      </c>
+      <c r="N46" s="11">
+        <v>12</v>
+      </c>
+      <c r="O46" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A47" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1573</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="25">
-      <c r="A2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2584</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D47" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M47" s="11">
+        <v>50</v>
+      </c>
+      <c r="N47" s="11">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="5">
-        <v>60</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="O47" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A48" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="11">
+        <v>7312</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="11">
+        <v>40</v>
+      </c>
+      <c r="N48" s="11">
+        <v>10</v>
+      </c>
+      <c r="O48" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A49" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="11">
+        <v>8642</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="11">
+        <v>55</v>
+      </c>
+      <c r="N49" s="11">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A50" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="11">
+        <v>5328</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="11">
+        <v>50</v>
+      </c>
+      <c r="N50" s="11">
+        <v>10</v>
+      </c>
+      <c r="O50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A51" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="11">
+        <v>7641</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="11">
+        <v>40</v>
+      </c>
+      <c r="N51" s="11">
+        <v>8</v>
+      </c>
+      <c r="O51" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25">
-      <c r="A3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3845</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="52" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A52" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1982</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="11">
+        <v>50</v>
+      </c>
+      <c r="N52" s="11">
+        <v>10</v>
+      </c>
+      <c r="O52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="25.5" thickBot="1">
+      <c r="A53" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="11">
+        <v>4631</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="5">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="25">
-      <c r="A4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4927</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M53" s="11">
+        <v>45</v>
+      </c>
+      <c r="N53" s="11">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="5">
-        <v>40</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="25">
-      <c r="A5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2468</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="5">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="25">
-      <c r="A6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1759</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="5">
-        <v>55</v>
-      </c>
-      <c r="N6" s="5">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="25">
-      <c r="A7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8963</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="5">
-        <v>50</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="25">
-      <c r="A8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4157</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="5">
-        <v>40</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="25">
-      <c r="A9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7631</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" s="5">
-        <v>45</v>
-      </c>
-      <c r="N9" s="5">
-        <v>12</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="25">
-      <c r="A10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5276</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="5">
-        <v>50</v>
-      </c>
-      <c r="N10" s="5">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="25">
-      <c r="A11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8194</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="5">
-        <v>45</v>
-      </c>
-      <c r="N11" s="5">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="25">
-      <c r="A12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2986</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="5">
-        <v>50</v>
-      </c>
-      <c r="N12" s="5">
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="25">
-      <c r="A13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="5">
-        <v>6872</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="5">
-        <v>40</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="25">
-      <c r="A14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4361</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="5">
-        <v>50</v>
-      </c>
-      <c r="N14" s="5">
-        <v>15</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="25">
-      <c r="A15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="5">
-        <v>7423</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M15" s="5">
-        <v>45</v>
-      </c>
-      <c r="N15" s="5">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="25">
-      <c r="A16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="5">
-        <v>8530</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="5">
-        <v>50</v>
-      </c>
-      <c r="N16" s="5">
-        <v>8</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="25">
-      <c r="A17" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1958</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="5">
-        <v>40</v>
-      </c>
-      <c r="N17" s="5">
-        <v>10</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="25">
-      <c r="A18" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4765</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="5">
-        <v>50</v>
-      </c>
-      <c r="N18" s="5">
-        <v>12</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="25">
-      <c r="A19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2473</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="5">
-        <v>40</v>
-      </c>
-      <c r="N19" s="5">
-        <v>15</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="25">
-      <c r="A20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5864</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="5">
-        <v>50</v>
-      </c>
-      <c r="N20" s="5">
-        <v>10</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="25">
-      <c r="A21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4731</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" s="5">
-        <v>45</v>
-      </c>
-      <c r="N21" s="5">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="25">
-      <c r="A22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1562</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="5">
-        <v>60</v>
-      </c>
-      <c r="N22" s="5">
-        <v>20</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25">
-      <c r="A23" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2365</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="5">
-        <v>55</v>
-      </c>
-      <c r="N23" s="5">
-        <v>12</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="25">
-      <c r="A24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1849</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="5">
-        <v>50</v>
-      </c>
-      <c r="N24" s="5">
-        <v>8</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="25">
-      <c r="A25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3827</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="5">
-        <v>40</v>
-      </c>
-      <c r="N25" s="5">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="25">
-      <c r="A26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="5">
-        <v>9584</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="5">
-        <v>45</v>
-      </c>
-      <c r="N26" s="5">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="25">
-      <c r="A27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5763</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" s="5">
-        <v>50</v>
-      </c>
-      <c r="N27" s="5">
-        <v>15</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="25">
-      <c r="A28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="5">
-        <v>7642</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="5">
-        <v>45</v>
-      </c>
-      <c r="N28" s="5">
-        <v>7</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="25">
-      <c r="A29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3641</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="5">
-        <v>50</v>
-      </c>
-      <c r="N29" s="5">
-        <v>12</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="25">
-      <c r="A30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="5">
-        <v>7546</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M30" s="5">
-        <v>60</v>
-      </c>
-      <c r="N30" s="5">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="25">
-      <c r="A31" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="5">
-        <v>8430</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="5">
-        <v>45</v>
-      </c>
-      <c r="N31" s="5">
-        <v>5</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25">
-      <c r="A32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2745</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="5">
-        <v>50</v>
-      </c>
-      <c r="N32" s="5">
-        <v>10</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="25">
-      <c r="A33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1987</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M33" s="5">
-        <v>60</v>
-      </c>
-      <c r="N33" s="5">
-        <v>12</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="25">
-      <c r="A34" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2974</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" s="5">
-        <v>40</v>
-      </c>
-      <c r="N34" s="5">
-        <v>8</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="25">
-      <c r="A35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="5">
-        <v>8126</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M35" s="5">
-        <v>55</v>
-      </c>
-      <c r="N35" s="5">
-        <v>10</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="25">
-      <c r="A36" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6395</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="5">
-        <v>50</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="25">
-      <c r="A37" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="5">
-        <v>8421</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="5">
-        <v>40</v>
-      </c>
-      <c r="N37" s="5">
-        <v>12</v>
-      </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="25">
-      <c r="A38" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3741</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="5">
-        <v>50</v>
-      </c>
-      <c r="N38" s="5">
-        <v>10</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="25">
-      <c r="A39" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="5">
-        <v>9823</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M39" s="5">
-        <v>45</v>
-      </c>
-      <c r="N39" s="5">
-        <v>8</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="25">
-      <c r="A40" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1675</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="5">
-        <v>50</v>
-      </c>
-      <c r="N40" s="5">
-        <v>15</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="25">
-      <c r="A41" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="5">
-        <v>7436</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M41" s="5">
-        <v>60</v>
-      </c>
-      <c r="N41" s="5">
-        <v>12</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="25">
-      <c r="A42" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B42" s="5">
-        <v>5698</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="5">
-        <v>40</v>
-      </c>
-      <c r="N42" s="5">
-        <v>10</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="25">
-      <c r="A43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="5">
-        <v>4217</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M43" s="5">
-        <v>50</v>
-      </c>
-      <c r="N43" s="5">
-        <v>8</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="25">
-      <c r="A44" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2374</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M44" s="5">
-        <v>50</v>
-      </c>
-      <c r="N44" s="5">
-        <v>12</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="25">
-      <c r="A45" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4823</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="5">
-        <v>45</v>
-      </c>
-      <c r="N45" s="5">
-        <v>10</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="25">
-      <c r="A46" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="5">
-        <v>9234</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" s="5">
-        <v>50</v>
-      </c>
-      <c r="N46" s="5">
-        <v>12</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="25">
-      <c r="A47" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1573</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="5">
-        <v>50</v>
-      </c>
-      <c r="N47" s="5">
-        <v>8</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="25">
-      <c r="A48" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="5">
-        <v>7312</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M48" s="5">
-        <v>40</v>
-      </c>
-      <c r="N48" s="5">
-        <v>10</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="25">
-      <c r="A49" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="5">
-        <v>8642</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="5">
-        <v>55</v>
-      </c>
-      <c r="N49" s="5">
-        <v>15</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="25">
-      <c r="A50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5328</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M50" s="5">
-        <v>50</v>
-      </c>
-      <c r="N50" s="5">
-        <v>10</v>
-      </c>
-      <c r="O50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="25">
-      <c r="A51" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="5">
-        <v>7641</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="5">
-        <v>40</v>
-      </c>
-      <c r="N51" s="5">
-        <v>8</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="25">
-      <c r="A52" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1982</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M52" s="5">
-        <v>50</v>
-      </c>
-      <c r="N52" s="5">
-        <v>10</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="25">
-      <c r="A53" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4631</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53" s="5">
-        <v>45</v>
-      </c>
-      <c r="N53" s="5">
-        <v>12</v>
-      </c>
-      <c r="O53">
+      <c r="O53" s="11">
         <v>2</v>
       </c>
     </row>
@@ -19853,7 +19884,8 @@
       <c r="N999" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D396CD9-CFCA-4D31-9C83-EC5D9FB38D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81F9F0-3C94-BA41-AA0B-B34561688A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="500" windowWidth="20800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -1175,91 +1175,92 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>個人課表\D7654321.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2345678.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543210.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210987.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109876.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D0987654.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654320.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543201.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432167.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D4321098.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210986.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D1234560.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543217.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432190.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109873.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210975.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765431.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432156.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654324.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D3210864.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D2109872.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D8765409.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432198.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D9876506.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D7654312.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D6543203.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表\D5432165.xlsx</t>
+  </si>
+  <si>
     <t>個人課表\D1234567.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654321.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2345678.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543210.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210987.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109876.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D0987654.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654320.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543201.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432167.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D4321098.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210986.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D1234560.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876542.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543217.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432190.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109873.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210975.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765431.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432156.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654324.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210864.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109872.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765409.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432198.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876506.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654312.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D6543203.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432165.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1277,6 +1278,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,13 +1612,13 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1642,7 +1644,7 @@
         <v>309</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1657,7 +1659,7 @@
         <v>356</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1672,7 +1674,7 @@
         <v>357</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1687,7 +1689,7 @@
         <v>312</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1702,7 +1704,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1717,7 +1719,7 @@
         <v>314</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1732,10 +1734,10 @@
         <v>358</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -1747,7 +1749,7 @@
         <v>315</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1762,7 +1764,7 @@
         <v>316</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1777,7 +1779,7 @@
         <v>317</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1792,7 +1794,7 @@
         <v>318</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1807,7 +1809,7 @@
         <v>320</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1822,7 +1824,7 @@
         <v>322</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -1833,7 +1835,7 @@
         <v>324</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -1844,7 +1846,7 @@
         <v>326</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -1855,7 +1857,7 @@
         <v>328</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -1866,7 +1868,7 @@
         <v>330</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -1877,7 +1879,7 @@
         <v>332</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -1888,7 +1890,7 @@
         <v>334</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -1899,7 +1901,7 @@
         <v>336</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -1910,7 +1912,7 @@
         <v>338</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -1921,7 +1923,7 @@
         <v>340</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -1932,7 +1934,7 @@
         <v>342</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -1943,7 +1945,7 @@
         <v>344</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -1954,7 +1956,7 @@
         <v>346</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
@@ -1965,7 +1967,7 @@
         <v>348</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
@@ -1976,7 +1978,7 @@
         <v>350</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -1987,7 +1989,7 @@
         <v>352</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
@@ -1998,7 +2000,7 @@
         <v>354</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2051,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2275,11 +2277,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2449,18 +2451,18 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="11" max="11" width="31.36328125" customWidth="1"/>
-    <col min="12" max="12" width="45.6328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="12" width="45.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1">
@@ -2510,7 +2512,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25">
+    <row r="2" spans="1:15" ht="28">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25">
+    <row r="3" spans="1:15" ht="28">
       <c r="A3" s="5" t="s">
         <v>184</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="25">
+    <row r="4" spans="1:15" ht="28">
       <c r="A4" s="5" t="s">
         <v>187</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="25">
+    <row r="5" spans="1:15" ht="28">
       <c r="A5" s="5" t="s">
         <v>190</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="25">
+    <row r="6" spans="1:15" ht="28">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25">
+    <row r="7" spans="1:15" ht="28">
       <c r="A7" s="5" t="s">
         <v>117</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25">
+    <row r="8" spans="1:15" ht="28">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="25">
+    <row r="9" spans="1:15" ht="28">
       <c r="A9" s="5" t="s">
         <v>200</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="25">
+    <row r="10" spans="1:15" ht="28">
       <c r="A10" s="5" t="s">
         <v>203</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="25">
+    <row r="11" spans="1:15" ht="28">
       <c r="A11" s="5" t="s">
         <v>206</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="25">
+    <row r="12" spans="1:15" ht="28">
       <c r="A12" s="5" t="s">
         <v>209</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="25">
+    <row r="13" spans="1:15" ht="28">
       <c r="A13" s="5" t="s">
         <v>212</v>
       </c>
@@ -3030,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="25">
+    <row r="14" spans="1:15" ht="28">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="25">
+    <row r="15" spans="1:15" ht="28">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="25">
+    <row r="16" spans="1:15" ht="28">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="25">
+    <row r="17" spans="1:15" ht="28">
       <c r="A17" s="5" t="s">
         <v>221</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="25">
+    <row r="18" spans="1:15" ht="28">
       <c r="A18" s="5" t="s">
         <v>224</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="25">
+    <row r="19" spans="1:15" ht="28">
       <c r="A19" s="5" t="s">
         <v>122</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="25">
+    <row r="20" spans="1:15" ht="28">
       <c r="A20" s="5" t="s">
         <v>126</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="25">
+    <row r="21" spans="1:15" ht="28">
       <c r="A21" s="5" t="s">
         <v>130</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="25">
+    <row r="22" spans="1:15" ht="28">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="25">
+    <row r="23" spans="1:15" ht="28">
       <c r="A23" s="5" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="25">
+    <row r="24" spans="1:15" ht="28">
       <c r="A24" s="5" t="s">
         <v>138</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="25">
+    <row r="25" spans="1:15" ht="28">
       <c r="A25" s="5" t="s">
         <v>141</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="25">
+    <row r="26" spans="1:15" ht="28">
       <c r="A26" s="5" t="s">
         <v>145</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="25">
+    <row r="27" spans="1:15" ht="28">
       <c r="A27" s="5" t="s">
         <v>97</v>
       </c>
@@ -3628,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="25">
+    <row r="28" spans="1:15" ht="28">
       <c r="A28" s="5" t="s">
         <v>150</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="25">
+    <row r="29" spans="1:15" ht="28">
       <c r="A29" s="5" t="s">
         <v>154</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="25">
+    <row r="30" spans="1:15" ht="28">
       <c r="A30" s="5" t="s">
         <v>157</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="25">
+    <row r="31" spans="1:15" ht="28">
       <c r="A31" s="5" t="s">
         <v>160</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25">
+    <row r="32" spans="1:15" ht="28">
       <c r="A32" s="5" t="s">
         <v>163</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="25">
+    <row r="33" spans="1:15" ht="28">
       <c r="A33" s="5" t="s">
         <v>166</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="25">
+    <row r="34" spans="1:15" ht="28">
       <c r="A34" s="5" t="s">
         <v>170</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="25">
+    <row r="35" spans="1:15" ht="28">
       <c r="A35" s="5" t="s">
         <v>174</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="25">
+    <row r="36" spans="1:15" ht="28">
       <c r="A36" s="5" t="s">
         <v>177</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="25">
+    <row r="37" spans="1:15" ht="28">
       <c r="A37" s="5" t="s">
         <v>228</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="25">
+    <row r="38" spans="1:15" ht="28">
       <c r="A38" s="5" t="s">
         <v>233</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="25">
+    <row r="39" spans="1:15" ht="28">
       <c r="A39" s="5" t="s">
         <v>154</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="25">
+    <row r="40" spans="1:15" ht="28">
       <c r="A40" s="5" t="s">
         <v>240</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="25">
+    <row r="41" spans="1:15" ht="28">
       <c r="A41" s="5" t="s">
         <v>100</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="25">
+    <row r="42" spans="1:15" ht="28">
       <c r="A42" s="5" t="s">
         <v>249</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="25">
+    <row r="43" spans="1:15" ht="28">
       <c r="A43" s="5" t="s">
         <v>177</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="25">
+    <row r="44" spans="1:15" ht="28">
       <c r="A44" s="5" t="s">
         <v>257</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="25">
+    <row r="45" spans="1:15" ht="28">
       <c r="A45" s="5" t="s">
         <v>102</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="25">
+    <row r="46" spans="1:15" ht="28">
       <c r="A46" s="5" t="s">
         <v>264</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="25">
+    <row r="47" spans="1:15" ht="28">
       <c r="A47" s="5" t="s">
         <v>268</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="25">
+    <row r="48" spans="1:15" ht="28">
       <c r="A48" s="5" t="s">
         <v>272</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="25">
+    <row r="49" spans="1:15" ht="28">
       <c r="A49" s="5" t="s">
         <v>276</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="25">
+    <row r="50" spans="1:15" ht="28">
       <c r="A50" s="5" t="s">
         <v>280</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="25">
+    <row r="51" spans="1:15" ht="28">
       <c r="A51" s="5" t="s">
         <v>284</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="25">
+    <row r="52" spans="1:15" ht="28">
       <c r="A52" s="5" t="s">
         <v>288</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="25">
+    <row r="53" spans="1:15" ht="28">
       <c r="A53" s="5" t="s">
         <v>292</v>
       </c>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0B3A3B-F8BA-43D1-AB51-D06FB5E36423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AB03D-616F-4E94-948E-B548B4CA06F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="230" windowWidth="9710" windowHeight="9590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -2034,7 +2034,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2296,7 +2296,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2470,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
@@ -2533,39 +2533,39 @@
     </row>
     <row r="2" spans="1:15" ht="25.5" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B2" s="11">
-        <v>2584</v>
+        <v>2473</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M2" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N2" s="11">
         <v>15</v>
@@ -2576,29 +2576,33 @@
     </row>
     <row r="3" spans="1:15" ht="25.5" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B3" s="11">
-        <v>3845</v>
+        <v>5864</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>121</v>
@@ -2615,112 +2619,108 @@
     </row>
     <row r="4" spans="1:15" ht="25.5" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B4" s="11">
-        <v>4927</v>
+        <v>4731</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="M4" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" s="11">
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25.5" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11">
-        <v>2468</v>
+        <v>1562</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M5" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N5" s="11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O5" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B6" s="11">
-        <v>1759</v>
+        <v>2365</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>62</v>
@@ -2729,13 +2729,13 @@
         <v>63</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>117</v>
@@ -2744,7 +2744,7 @@
         <v>55</v>
       </c>
       <c r="N6" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O6" s="11">
         <v>2</v>
@@ -2752,171 +2752,163 @@
     </row>
     <row r="7" spans="1:15" ht="25.5" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B7" s="11">
-        <v>8963</v>
+        <v>1849</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="M7" s="11">
         <v>50</v>
       </c>
       <c r="N7" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B8" s="11">
-        <v>4157</v>
+        <v>3827</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M8" s="11">
         <v>40</v>
       </c>
       <c r="N8" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="25.5" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B9" s="11">
-        <v>7631</v>
+        <v>9584</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M9" s="11">
         <v>45</v>
       </c>
       <c r="N9" s="11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O9" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="25.5" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="B10" s="11">
-        <v>5276</v>
+        <v>5763</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M10" s="11">
         <v>50</v>
       </c>
       <c r="N10" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O10" s="11">
         <v>3</v>
@@ -2924,33 +2916,33 @@
     </row>
     <row r="11" spans="1:15" ht="25.5" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B11" s="11">
-        <v>8194</v>
+        <v>7642</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>117</v>
@@ -2962,21 +2954,21 @@
         <v>7</v>
       </c>
       <c r="O11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="25.5" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B12" s="11">
-        <v>2986</v>
+        <v>3641</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>22</v>
@@ -2985,18 +2977,22 @@
         <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="K12" s="10" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="M12" s="11">
         <v>50</v>
@@ -3010,89 +3006,81 @@
     </row>
     <row r="13" spans="1:15" ht="25.5" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="B13" s="11">
-        <v>6872</v>
+        <v>7546</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M13" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" s="11">
         <v>10</v>
       </c>
       <c r="O13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B14" s="11">
-        <v>4361</v>
+        <v>8430</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M14" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N14" s="11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O14" s="11">
         <v>2</v>
@@ -3100,124 +3088,124 @@
     </row>
     <row r="15" spans="1:15" ht="25.5" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="B15" s="11">
-        <v>7423</v>
+        <v>2745</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M15" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N15" s="11">
         <v>10</v>
       </c>
       <c r="O15" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="25.5" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B16" s="11">
-        <v>8530</v>
+        <v>1987</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M16" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N16" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O16" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="25.5" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B17" s="11">
-        <v>1958</v>
+        <v>2974</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="M17" s="11">
         <v>40</v>
       </c>
       <c r="N17" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O17" s="11">
         <v>1</v>
@@ -3225,175 +3213,167 @@
     </row>
     <row r="18" spans="1:15" ht="25.5" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B18" s="11">
-        <v>4765</v>
+        <v>8126</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M18" s="11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N18" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O18" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="25.5" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="B19" s="11">
-        <v>2473</v>
+        <v>6395</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K19" s="10" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" s="11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O19" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="25.5" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B20" s="11">
-        <v>5864</v>
+        <v>2584</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N20" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O20" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="25.5" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B21" s="11">
-        <v>4731</v>
+        <v>3845</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M21" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N21" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" s="11">
         <v>2</v>
@@ -3401,38 +3381,46 @@
     </row>
     <row r="22" spans="1:15" ht="25.5" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B22" s="11">
-        <v>1562</v>
+        <v>4927</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="K22" s="10" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M22" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N22" s="11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O22" s="11">
         <v>1</v>
@@ -3440,43 +3428,39 @@
     </row>
     <row r="23" spans="1:15" ht="25.5" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B23" s="11">
-        <v>2365</v>
+        <v>2468</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M23" s="11">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N23" s="11">
         <v>12</v>
@@ -3487,78 +3471,82 @@
     </row>
     <row r="24" spans="1:15" ht="25.5" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B24" s="11">
-        <v>1849</v>
+        <v>1759</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="K24" s="10" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M24" s="11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N24" s="11">
         <v>8</v>
       </c>
       <c r="O24" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="25.5" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B25" s="11">
-        <v>3827</v>
+        <v>8963</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="M25" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N25" s="11">
         <v>10</v>
@@ -3569,81 +3557,89 @@
     </row>
     <row r="26" spans="1:15" ht="25.5" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B26" s="11">
-        <v>9584</v>
+        <v>4157</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="K26" s="10" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M26" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N26" s="11">
         <v>5</v>
       </c>
       <c r="O26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B27" s="11">
-        <v>5763</v>
+        <v>7631</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="M27" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N27" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O27" s="11">
         <v>3</v>
@@ -3651,42 +3647,42 @@
     </row>
     <row r="28" spans="1:15" ht="25.5" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="B28" s="11">
-        <v>7642</v>
+        <v>5276</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M28" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N28" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O28" s="11">
         <v>3</v>
@@ -3694,46 +3690,42 @@
     </row>
     <row r="29" spans="1:15" ht="25.5" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B29" s="11">
-        <v>3641</v>
+        <v>8194</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>55</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M29" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N29" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O29" s="11">
         <v>2</v>
@@ -3741,81 +3733,85 @@
     </row>
     <row r="30" spans="1:15" ht="25.5" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B30" s="11">
-        <v>7546</v>
+        <v>2986</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="M30" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N30" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O30" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="25.5" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B31" s="11">
-        <v>8430</v>
+        <v>6872</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M31" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N31" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O31" s="11">
         <v>2</v>
@@ -3823,33 +3819,37 @@
     </row>
     <row r="32" spans="1:15" ht="25.5" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B32" s="11">
-        <v>2745</v>
+        <v>4361</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="K32" s="10" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>117</v>
@@ -3858,7 +3858,7 @@
         <v>50</v>
       </c>
       <c r="N32" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O32" s="11">
         <v>2</v>
@@ -3866,61 +3866,65 @@
     </row>
     <row r="33" spans="1:15" ht="25.5" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B33" s="11">
-        <v>1987</v>
+        <v>7423</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="M33" s="11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N33" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O33" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="25.5" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B34" s="11">
-        <v>2974</v>
+        <v>8530</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>62</v>
@@ -3931,13 +3935,13 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="M34" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N34" s="11">
         <v>8</v>
@@ -3948,35 +3952,35 @@
     </row>
     <row r="35" spans="1:15" ht="25.5" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B35" s="11">
-        <v>8126</v>
+        <v>1958</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M35" s="11">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N35" s="11">
         <v>10</v>
@@ -3987,37 +3991,33 @@
     </row>
     <row r="36" spans="1:15" ht="25.5" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B36" s="11">
-        <v>6395</v>
+        <v>4765</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>117</v>
@@ -4026,10 +4026,10 @@
         <v>50</v>
       </c>
       <c r="N36" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O36" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="25.5" thickBot="1">

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AB03D-616F-4E94-948E-B548B4CA06F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6EDBDE-5BAF-41D1-9932-EE3CD69E82D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2470,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
@@ -2533,132 +2533,120 @@
     </row>
     <row r="2" spans="1:15" ht="25.5" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11">
-        <v>2473</v>
+        <v>1562</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>55</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M2" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N2" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O2" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.5" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="B3" s="11">
-        <v>5864</v>
+        <v>1573</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="M3" s="11">
         <v>50</v>
       </c>
       <c r="N3" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="25.5" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B4" s="11">
-        <v>4731</v>
+        <v>1675</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M4" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N4" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O4" s="11">
         <v>2</v>
@@ -2666,102 +2654,102 @@
     </row>
     <row r="5" spans="1:15" ht="25.5" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B5" s="11">
-        <v>1562</v>
+        <v>1759</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" s="10" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M5" s="11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N5" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="O5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6" s="11">
-        <v>2365</v>
+        <v>1849</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="11">
         <v>50</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="11">
-        <v>55</v>
-      </c>
       <c r="N6" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="25.5" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B7" s="11">
-        <v>1849</v>
+        <v>1958</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>56</v>
@@ -2774,56 +2762,52 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M7" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11">
-        <v>3827</v>
+        <v>1982</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M8" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8" s="11">
         <v>10</v>
@@ -2834,38 +2818,38 @@
     </row>
     <row r="9" spans="1:15" ht="25.5" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B9" s="11">
-        <v>9584</v>
+        <v>1987</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M9" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N9" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O9" s="11">
         <v>2</v>
@@ -2873,129 +2857,129 @@
     </row>
     <row r="10" spans="1:15" ht="25.5" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B10" s="11">
-        <v>5763</v>
+        <v>2365</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="11">
+        <v>55</v>
+      </c>
+      <c r="N10" s="11">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="11">
-        <v>50</v>
-      </c>
-      <c r="N10" s="11">
-        <v>15</v>
-      </c>
       <c r="O10" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="B11" s="11">
-        <v>7642</v>
+        <v>2374</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M11" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N11" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="25.5" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="B12" s="11">
-        <v>3641</v>
+        <v>2468</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>55</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M12" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" s="11">
         <v>12</v>
@@ -3006,84 +2990,88 @@
     </row>
     <row r="13" spans="1:15" ht="25.5" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B13" s="11">
-        <v>7546</v>
+        <v>2473</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M13" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N13" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B14" s="11">
-        <v>8430</v>
+        <v>2584</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M14" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N14" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O14" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="25.5" thickBot="1">
@@ -3131,143 +3119,155 @@
     </row>
     <row r="16" spans="1:15" ht="25.5" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B16" s="11">
-        <v>1987</v>
+        <v>2974</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="M16" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N16" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="25.5" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B17" s="11">
-        <v>2974</v>
+        <v>2986</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M17" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N17" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O17" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="25.5" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B18" s="11">
-        <v>8126</v>
+        <v>3641</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="11">
         <v>50</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="11">
-        <v>55</v>
-      </c>
       <c r="N18" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O18" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="25.5" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="B19" s="11">
-        <v>6395</v>
+        <v>3741</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>58</v>
@@ -3275,14 +3275,10 @@
       <c r="H19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>117</v>
@@ -3291,53 +3287,53 @@
         <v>50</v>
       </c>
       <c r="N19" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O19" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="25.5" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B20" s="11">
-        <v>2584</v>
+        <v>3827</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M20" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N20" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O20" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="25.5" thickBot="1">
@@ -3381,40 +3377,40 @@
     </row>
     <row r="22" spans="1:15" ht="25.5" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="B22" s="11">
-        <v>4927</v>
+        <v>4157</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M22" s="11">
         <v>40</v>
@@ -3428,42 +3424,38 @@
     </row>
     <row r="23" spans="1:15" ht="25.5" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B23" s="11">
-        <v>2468</v>
+        <v>4217</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="M23" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N23" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O23" s="11">
         <v>2</v>
@@ -3471,46 +3463,46 @@
     </row>
     <row r="24" spans="1:15" ht="25.5" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B24" s="11">
-        <v>1759</v>
+        <v>4361</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M24" s="11">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N24" s="11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O24" s="11">
         <v>2</v>
@@ -3518,38 +3510,42 @@
     </row>
     <row r="25" spans="1:15" ht="25.5" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="B25" s="11">
-        <v>8963</v>
+        <v>4631</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+        <v>286</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>189</v>
       </c>
       <c r="M25" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N25" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O25" s="11">
         <v>2</v>
@@ -3557,86 +3553,86 @@
     </row>
     <row r="26" spans="1:15" ht="25.5" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B26" s="11">
-        <v>4157</v>
+        <v>4731</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M26" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N26" s="11">
         <v>5</v>
       </c>
       <c r="O26" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="25.5" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B27" s="11">
-        <v>7631</v>
+        <v>4765</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M27" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N27" s="11">
         <v>12</v>
@@ -3647,65 +3643,65 @@
     </row>
     <row r="28" spans="1:15" ht="25.5" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="B28" s="11">
-        <v>5276</v>
+        <v>4823</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M28" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N28" s="11">
         <v>10</v>
       </c>
       <c r="O28" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="25.5" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B29" s="11">
-        <v>8194</v>
+        <v>4927</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>12</v>
@@ -3713,102 +3709,102 @@
       <c r="H29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="K29" s="10" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M29" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N29" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O29" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="25.5" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B30" s="11">
-        <v>2986</v>
+        <v>5276</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M30" s="11">
         <v>50</v>
       </c>
       <c r="N30" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O30" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="25.5" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="B31" s="11">
-        <v>6872</v>
+        <v>5328</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M31" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N31" s="11">
         <v>10</v>
@@ -3819,89 +3815,85 @@
     </row>
     <row r="32" spans="1:15" ht="25.5" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="B32" s="11">
-        <v>4361</v>
+        <v>5698</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M32" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N32" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O32" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="25.5" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B33" s="11">
-        <v>7423</v>
+        <v>5763</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="M33" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N33" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O33" s="11">
         <v>3</v>
@@ -3909,154 +3901,166 @@
     </row>
     <row r="34" spans="1:15" ht="25.5" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B34" s="11">
-        <v>8530</v>
+        <v>5864</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M34" s="11">
         <v>50</v>
       </c>
       <c r="N34" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O34" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="25.5" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="B35" s="11">
-        <v>1958</v>
+        <v>6395</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="K35" s="10" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M35" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N35" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O35" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="25.5" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B36" s="11">
-        <v>4765</v>
+        <v>6872</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M36" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N36" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="25.5" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="B37" s="11">
-        <v>8421</v>
+        <v>7312</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>102</v>
@@ -4065,7 +4069,7 @@
         <v>40</v>
       </c>
       <c r="N37" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O37" s="11">
         <v>2</v>
@@ -4073,39 +4077,39 @@
     </row>
     <row r="38" spans="1:15" ht="25.5" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="B38" s="11">
-        <v>3741</v>
+        <v>7423</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="M38" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N38" s="11">
         <v>10</v>
@@ -4116,175 +4120,175 @@
     </row>
     <row r="39" spans="1:15" ht="25.5" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B39" s="11">
-        <v>9823</v>
+        <v>7436</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="K39" s="10" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M39" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N39" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O39" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="25.5" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="B40" s="11">
-        <v>1675</v>
+        <v>7546</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M40" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N40" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O40" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="25.5" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="B41" s="11">
-        <v>7436</v>
+        <v>7631</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="M41" s="11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N41" s="11">
         <v>12</v>
       </c>
       <c r="O41" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="25.5" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="B42" s="11">
-        <v>5698</v>
+        <v>7641</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M42" s="11">
         <v>40</v>
       </c>
       <c r="N42" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O42" s="11">
         <v>3</v>
@@ -4292,115 +4296,115 @@
     </row>
     <row r="43" spans="1:15" ht="25.5" thickBot="1">
       <c r="A43" s="10" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B43" s="11">
-        <v>4217</v>
+        <v>7642</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M43" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N43" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="25.5" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="B44" s="11">
-        <v>2374</v>
+        <v>8126</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M44" s="11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N44" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O44" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="B45" s="11">
-        <v>4823</v>
+        <v>8194</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>117</v>
@@ -4409,7 +4413,7 @@
         <v>45</v>
       </c>
       <c r="N45" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O45" s="11">
         <v>2</v>
@@ -4417,127 +4421,123 @@
     </row>
     <row r="46" spans="1:15" ht="25.5" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B46" s="11">
-        <v>9234</v>
+        <v>8421</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M46" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N46" s="11">
         <v>12</v>
       </c>
       <c r="O46" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="25.5" thickBot="1">
       <c r="A47" s="10" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="B47" s="11">
-        <v>1573</v>
+        <v>8430</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M47" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N47" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O47" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="25.5" thickBot="1">
       <c r="A48" s="10" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="B48" s="11">
-        <v>7312</v>
+        <v>8530</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M48" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N48" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="25.5" thickBot="1">
@@ -4585,32 +4585,32 @@
     </row>
     <row r="50" spans="1:15" ht="25.5" thickBot="1">
       <c r="A50" s="10" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="B50" s="11">
-        <v>5328</v>
+        <v>8963</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="M50" s="11">
         <v>50</v>
@@ -4624,42 +4624,42 @@
     </row>
     <row r="51" spans="1:15" ht="25.5" thickBot="1">
       <c r="A51" s="10" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B51" s="11">
-        <v>7641</v>
+        <v>9234</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M51" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N51" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O51" s="11">
         <v>3</v>
@@ -4667,38 +4667,38 @@
     </row>
     <row r="52" spans="1:15" ht="25.5" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="B52" s="11">
-        <v>1982</v>
+        <v>9584</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>117</v>
       </c>
       <c r="M52" s="11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N52" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O52" s="11">
         <v>2</v>
@@ -4706,33 +4706,33 @@
     </row>
     <row r="53" spans="1:15" ht="25.5" thickBot="1">
       <c r="A53" s="10" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="B53" s="11">
-        <v>4631</v>
+        <v>9823</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>189</v>
@@ -4741,7 +4741,7 @@
         <v>45</v>
       </c>
       <c r="N53" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O53" s="11">
         <v>2</v>
@@ -19884,6 +19884,9 @@
       <c r="N999" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O999">
+    <sortCondition ref="B2:B999"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6EDBDE-5BAF-41D1-9932-EE3CD69E82D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
   <si>
     <t>學生姓名</t>
   </si>
@@ -1246,6 +1246,64 @@
   </si>
   <si>
     <t>個人課表\T1234550.xlsx</t>
+  </si>
+  <si>
+    <t>A9876540</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人課表/A9876543.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876542.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876541.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876540.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876539.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876538.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876537.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876536.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876535.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876534.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876533.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876532.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876531.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876530.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876529.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876528.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876527.xlsx</t>
+  </si>
+  <si>
+    <t>個人課表/A9876526.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1263,6 +1321,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1603,9 +1662,9 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -2034,13 +2093,13 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -2296,11 +2355,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2320,6 +2379,9 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -2328,6 +2390,9 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2336,6 +2401,9 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -2344,6 +2412,9 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -2352,6 +2423,9 @@
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -2360,6 +2434,9 @@
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -2368,6 +2445,9 @@
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -2376,6 +2456,9 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -2384,6 +2467,9 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -2392,6 +2478,9 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -2400,6 +2489,9 @@
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -2408,6 +2500,9 @@
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -2416,6 +2511,9 @@
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2424,6 +2522,9 @@
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -2432,33 +2533,65 @@
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C16" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C17" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C18" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4F2A961D-AE27-A14F-AD85-5AD70F34C74B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB5EA54E-94BB-324E-A265-C1CB89BA716E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{26537EBF-F0A6-DD4D-B0BD-E71E3C32A475}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0C2E09A-1E32-2F46-817C-84CE94A2FC94}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{86582132-96D9-9941-BF69-2AB486B5028C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{EF9E806F-B0AD-6D4B-98BA-42AC282376A1}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{DBB56B60-9CBB-0B4D-920A-F5D19F176E15}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{EED2E0DC-A806-064E-B5ED-E27ACBBDA115}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{8362B9E3-39CC-F844-84A2-A96CEBFBA3BE}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{61212BBC-9E9D-4640-8BAA-BCD4C703EF5B}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{8B60F107-0D37-A342-90DD-13A430321F99}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C1F5214B-1E37-6847-BF6F-EFCB71249322}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A19FE595-93BE-E747-8957-6945906C30AF}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{33E3A9B7-97E3-CA42-A4C0-C37B2776D452}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{06D08227-2A57-4242-8C87-93224BA14AC3}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{722F38D7-A523-EC41-A9C5-6E414924147E}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{45D821CD-3BE0-BB43-B05B-5796731B7448}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{89FF4A95-67B6-9A40-A16E-E504EA274C81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2470,18 +2603,18 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="11" max="11" width="31.36328125" customWidth="1"/>
-    <col min="12" max="12" width="45.6328125" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="12" width="45.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
@@ -2531,7 +2664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.5" thickBot="1">
+    <row r="2" spans="1:15" ht="29" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
@@ -2570,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" thickBot="1">
+    <row r="3" spans="1:15" ht="29" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>260</v>
       </c>
@@ -2609,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="25.5" thickBot="1">
+    <row r="4" spans="1:15" ht="29" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>232</v>
       </c>
@@ -2632,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>21</v>
+        <v>402</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2652,7 +2785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="25.5" thickBot="1">
+    <row r="5" spans="1:15" ht="29" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
@@ -2699,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="25.5" thickBot="1">
+    <row r="6" spans="1:15" ht="29" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
@@ -2738,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25.5" thickBot="1">
+    <row r="7" spans="1:15" ht="29" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2777,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" thickBot="1">
+    <row r="8" spans="1:15" ht="29" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>280</v>
       </c>
@@ -2816,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="25.5" thickBot="1">
+    <row r="9" spans="1:15" ht="29" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -2855,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="25.5" thickBot="1">
+    <row r="10" spans="1:15" ht="29" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
@@ -2902,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="25.5" thickBot="1">
+    <row r="11" spans="1:15" ht="29" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>249</v>
       </c>
@@ -2945,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="25.5" thickBot="1">
+    <row r="12" spans="1:15" ht="29" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>182</v>
       </c>
@@ -2988,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="25.5" thickBot="1">
+    <row r="13" spans="1:15" ht="29" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>114</v>
       </c>
@@ -3031,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="25.5" thickBot="1">
+    <row r="14" spans="1:15" ht="29" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>173</v>
       </c>
@@ -3074,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="25.5" thickBot="1">
+    <row r="15" spans="1:15" ht="29" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>155</v>
       </c>
@@ -3117,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="25.5" thickBot="1">
+    <row r="16" spans="1:15" ht="29" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -3160,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="25.5" thickBot="1">
+    <row r="17" spans="1:15" ht="29" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>201</v>
       </c>
@@ -3203,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="25.5" thickBot="1">
+    <row r="18" spans="1:15" ht="29" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>146</v>
       </c>
@@ -3250,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="25.5" thickBot="1">
+    <row r="19" spans="1:15" ht="29" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>225</v>
       </c>
@@ -3293,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="25.5" thickBot="1">
+    <row r="20" spans="1:15" ht="29" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>133</v>
       </c>
@@ -3336,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="25.5" thickBot="1">
+    <row r="21" spans="1:15" ht="29" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>176</v>
       </c>
@@ -3375,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="25.5" thickBot="1">
+    <row r="22" spans="1:15" ht="29" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>106</v>
       </c>
@@ -3400,12 +3533,8 @@
       <c r="H22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
         <v>191</v>
       </c>
@@ -3422,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="25.5" thickBot="1">
+    <row r="23" spans="1:15" ht="29" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -3461,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="25.5" thickBot="1">
+    <row r="24" spans="1:15" ht="29" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>110</v>
       </c>
@@ -3481,15 +3610,9 @@
         <v>65</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>384</v>
+        <v>58</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="10" t="s">
         <v>59</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -3508,7 +3631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="25.5" thickBot="1">
+    <row r="25" spans="1:15" ht="29" thickBot="1">
       <c r="A25" s="10" t="s">
         <v>284</v>
       </c>
@@ -3551,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="25.5" thickBot="1">
+    <row r="26" spans="1:15" ht="29" thickBot="1">
       <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
@@ -3598,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="25.5" thickBot="1">
+    <row r="27" spans="1:15" ht="29" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>216</v>
       </c>
@@ -3641,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="25.5" thickBot="1">
+    <row r="28" spans="1:15" ht="29" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
@@ -3684,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="25.5" thickBot="1">
+    <row r="29" spans="1:15" ht="29" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>179</v>
       </c>
@@ -3704,15 +3827,9 @@
         <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="10" t="s">
@@ -3731,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="25.5" thickBot="1">
+    <row r="30" spans="1:15" ht="29" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>195</v>
       </c>
@@ -3774,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="25.5" thickBot="1">
+    <row r="31" spans="1:15" ht="29" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>272</v>
       </c>
@@ -3813,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25.5" thickBot="1">
+    <row r="32" spans="1:15" ht="29" thickBot="1">
       <c r="A32" s="10" t="s">
         <v>241</v>
       </c>
@@ -3856,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="25.5" thickBot="1">
+    <row r="33" spans="1:15" ht="29" thickBot="1">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -3899,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="25.5" thickBot="1">
+    <row r="34" spans="1:15" ht="29" thickBot="1">
       <c r="A34" s="10" t="s">
         <v>118</v>
       </c>
@@ -3942,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="25.5" thickBot="1">
+    <row r="35" spans="1:15" ht="29" thickBot="1">
       <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
@@ -3962,15 +4079,9 @@
         <v>61</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K35" s="10" t="s">
@@ -3989,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="25.5" thickBot="1">
+    <row r="36" spans="1:15" ht="29" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -4032,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="25.5" thickBot="1">
+    <row r="37" spans="1:15" ht="29" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>264</v>
       </c>
@@ -4075,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="25.5" thickBot="1">
+    <row r="38" spans="1:15" ht="29" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>109</v>
       </c>
@@ -4118,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="25.5" thickBot="1">
+    <row r="39" spans="1:15" ht="29" thickBot="1">
       <c r="A39" s="10" t="s">
         <v>96</v>
       </c>
@@ -4138,15 +4249,9 @@
         <v>239</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="J39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="10" t="s">
@@ -4165,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="25.5" thickBot="1">
+    <row r="40" spans="1:15" ht="29" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>149</v>
       </c>
@@ -4208,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="25.5" thickBot="1">
+    <row r="41" spans="1:15" ht="29" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>192</v>
       </c>
@@ -4251,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="25.5" thickBot="1">
+    <row r="42" spans="1:15" ht="29" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>276</v>
       </c>
@@ -4294,7 +4399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="25.5" thickBot="1">
+    <row r="43" spans="1:15" ht="29" thickBot="1">
       <c r="A43" s="10" t="s">
         <v>142</v>
       </c>
@@ -4337,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="25.5" thickBot="1">
+    <row r="44" spans="1:15" ht="29" thickBot="1">
       <c r="A44" s="10" t="s">
         <v>166</v>
       </c>
@@ -4376,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="25.5" thickBot="1">
+    <row r="45" spans="1:15" ht="29" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>198</v>
       </c>
@@ -4396,10 +4501,10 @@
         <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -4419,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="25.5" thickBot="1">
+    <row r="46" spans="1:15" ht="29" thickBot="1">
       <c r="A46" s="10" t="s">
         <v>220</v>
       </c>
@@ -4458,7 +4563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="25.5" thickBot="1">
+    <row r="47" spans="1:15" ht="29" thickBot="1">
       <c r="A47" s="10" t="s">
         <v>152</v>
       </c>
@@ -4497,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="25.5" thickBot="1">
+    <row r="48" spans="1:15" ht="29" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>111</v>
       </c>
@@ -4517,10 +4622,10 @@
         <v>34</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -4540,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="25.5" thickBot="1">
+    <row r="49" spans="1:15" ht="29" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>268</v>
       </c>
@@ -4583,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="25.5" thickBot="1">
+    <row r="50" spans="1:15" ht="29" thickBot="1">
       <c r="A50" s="10" t="s">
         <v>113</v>
       </c>
@@ -4622,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="25.5" thickBot="1">
+    <row r="51" spans="1:15" ht="29" thickBot="1">
       <c r="A51" s="10" t="s">
         <v>256</v>
       </c>
@@ -4665,7 +4770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="25.5" thickBot="1">
+    <row r="52" spans="1:15" ht="29" thickBot="1">
       <c r="A52" s="10" t="s">
         <v>137</v>
       </c>
@@ -4704,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="25.5" thickBot="1">
+    <row r="53" spans="1:15" ht="29" thickBot="1">
       <c r="A53" s="10" t="s">
         <v>146</v>
       </c>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8571D36-F564-544F-80FF-2F58CE672EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -533,9 +533,6 @@
     <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
   </si>
   <si>
-    <t>數位行銷</t>
-  </si>
-  <si>
     <t>星期三 08:00-10:00</t>
   </si>
   <si>
@@ -1304,13 +1301,17 @@
   </si>
   <si>
     <t>個人課表/A9876526.xlsx</t>
+  </si>
+  <si>
+    <t>數位行銷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1367,6 +1368,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1410,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1436,6 +1443,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1658,7 +1668,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1687,10 +1697,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1699,13 +1709,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1714,13 +1724,13 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1732,10 +1742,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1747,10 +1757,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1762,10 +1772,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1777,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1792,10 +1802,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1807,10 +1817,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1822,10 +1832,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1837,10 +1847,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1849,13 +1859,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1864,189 +1874,189 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2136,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2149,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2162,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2175,7 +2185,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2188,7 +2198,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2201,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2214,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2227,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2240,7 +2250,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2253,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2266,7 +2276,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2279,7 +2289,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2292,7 +2302,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2305,7 +2315,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2318,7 +2328,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2355,7 +2365,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2380,18 +2390,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2402,73 +2412,73 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -2479,7 +2489,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -2490,29 +2500,29 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -2523,51 +2533,51 @@
         <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2603,8 +2613,8 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2637,16 +2647,16 @@
         <v>77</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>78</v>
@@ -2661,7 +2671,7 @@
         <v>81</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="29" thickBot="1">
@@ -2705,7 +2715,7 @@
     </row>
     <row r="3" spans="1:15" ht="29" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="11">
         <v>1573</v>
@@ -2714,23 +2724,23 @@
         <v>83</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M3" s="11">
         <v>50</v>
@@ -2744,7 +2754,7 @@
     </row>
     <row r="4" spans="1:15" ht="29" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="11">
         <v>1675</v>
@@ -2753,24 +2763,24 @@
         <v>90</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>117</v>
@@ -2796,7 +2806,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>22</v>
@@ -2817,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>117</v>
@@ -2873,7 +2883,7 @@
     </row>
     <row r="7" spans="1:15" ht="29" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="11">
         <v>1958</v>
@@ -2882,7 +2892,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>56</v>
@@ -2895,7 +2905,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>117</v>
@@ -2912,7 +2922,7 @@
     </row>
     <row r="8" spans="1:15" ht="29" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="11">
         <v>1982</v>
@@ -2921,20 +2931,20 @@
         <v>101</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>117</v>
@@ -3037,7 +3047,7 @@
     </row>
     <row r="11" spans="1:15" ht="29" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="11">
         <v>2374</v>
@@ -3046,13 +3056,13 @@
         <v>94</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>62</v>
@@ -3063,7 +3073,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>102</v>
@@ -3080,7 +3090,7 @@
     </row>
     <row r="12" spans="1:15" ht="29" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="11">
         <v>2468</v>
@@ -3089,7 +3099,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>18</v>
@@ -3106,7 +3116,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>117</v>
@@ -3166,7 +3176,7 @@
     </row>
     <row r="14" spans="1:15" ht="29" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="11">
         <v>2584</v>
@@ -3175,7 +3185,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>6</v>
@@ -3192,7 +3202,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>117</v>
@@ -3295,7 +3305,7 @@
     </row>
     <row r="17" spans="1:15" ht="29" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="11">
         <v>2986</v>
@@ -3304,7 +3314,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>22</v>
@@ -3321,10 +3331,10 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17" s="11">
         <v>50</v>
@@ -3344,7 +3354,7 @@
         <v>3641</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>147</v>
@@ -3385,7 +3395,7 @@
     </row>
     <row r="19" spans="1:15" ht="29" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11">
         <v>3741</v>
@@ -3394,13 +3404,13 @@
         <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>58</v>
@@ -3411,7 +3421,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>117</v>
@@ -3471,7 +3481,7 @@
     </row>
     <row r="21" spans="1:15" ht="29" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>3845</v>
@@ -3480,7 +3490,7 @@
         <v>88</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>10</v>
@@ -3493,7 +3503,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>121</v>
@@ -3519,7 +3529,7 @@
         <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>52</v>
@@ -3536,7 +3546,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>117</v>
@@ -3552,8 +3562,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="29" thickBot="1">
-      <c r="A23" s="10" t="s">
-        <v>169</v>
+      <c r="A23" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="B23" s="11">
         <v>4217</v>
@@ -3562,23 +3572,23 @@
         <v>84</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M23" s="11">
         <v>50</v>
@@ -3598,10 +3608,10 @@
         <v>4361</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>64</v>
@@ -3616,7 +3626,7 @@
         <v>59</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>117</v>
@@ -3633,7 +3643,7 @@
     </row>
     <row r="25" spans="1:15" ht="29" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="11">
         <v>4631</v>
@@ -3642,13 +3652,13 @@
         <v>92</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>35</v>
@@ -3659,10 +3669,10 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M25" s="11">
         <v>45</v>
@@ -3723,16 +3733,16 @@
     </row>
     <row r="27" spans="1:15" ht="29" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="11">
         <v>4765</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>29</v>
@@ -3749,7 +3759,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>117</v>
@@ -3775,13 +3785,13 @@
         <v>86</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>20</v>
@@ -3792,7 +3802,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>117</v>
@@ -3809,7 +3819,7 @@
     </row>
     <row r="29" spans="1:15" ht="29" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="11">
         <v>4927</v>
@@ -3818,7 +3828,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>14</v>
@@ -3833,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>102</v>
@@ -3850,7 +3860,7 @@
     </row>
     <row r="30" spans="1:15" ht="29" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="11">
         <v>5276</v>
@@ -3859,7 +3869,7 @@
         <v>90</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>68</v>
@@ -3876,7 +3886,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>117</v>
@@ -3893,7 +3903,7 @@
     </row>
     <row r="31" spans="1:15" ht="29" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="11">
         <v>5328</v>
@@ -3902,20 +3912,20 @@
         <v>90</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>117</v>
@@ -3932,7 +3942,7 @@
     </row>
     <row r="32" spans="1:15" ht="29" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="11">
         <v>5698</v>
@@ -3941,13 +3951,13 @@
         <v>91</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>31</v>
@@ -3958,7 +3968,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>102</v>
@@ -4060,17 +4070,17 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="29" thickBot="1">
-      <c r="A35" s="10" t="s">
-        <v>169</v>
+      <c r="A35" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="B35" s="11">
         <v>6395</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>60</v>
@@ -4085,7 +4095,7 @@
         <v>67</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>117</v>
@@ -4102,7 +4112,7 @@
     </row>
     <row r="36" spans="1:15" ht="29" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="11">
         <v>6872</v>
@@ -4111,7 +4121,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>39</v>
@@ -4128,7 +4138,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>102</v>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="37" spans="1:15" ht="29" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="11">
         <v>7312</v>
@@ -4154,13 +4164,13 @@
         <v>92</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>24</v>
@@ -4171,7 +4181,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>102</v>
@@ -4197,7 +4207,7 @@
         <v>95</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>29</v>
@@ -4214,10 +4224,10 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M38" s="11">
         <v>45</v>
@@ -4240,22 +4250,22 @@
         <v>103</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="G39" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>117</v>
@@ -4315,7 +4325,7 @@
     </row>
     <row r="41" spans="1:15" ht="29" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="11">
         <v>7631</v>
@@ -4324,7 +4334,7 @@
         <v>85</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>56</v>
@@ -4341,10 +4351,10 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M41" s="11">
         <v>45</v>
@@ -4358,7 +4368,7 @@
     </row>
     <row r="42" spans="1:15" ht="29" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="11">
         <v>7641</v>
@@ -4367,13 +4377,13 @@
         <v>159</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -4384,7 +4394,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>117</v>
@@ -4483,7 +4493,7 @@
     </row>
     <row r="45" spans="1:15" ht="29" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="11">
         <v>8194</v>
@@ -4492,7 +4502,7 @@
         <v>143</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>49</v>
@@ -4501,7 +4511,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>28</v>
@@ -4509,7 +4519,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>117</v>
@@ -4526,7 +4536,7 @@
     </row>
     <row r="46" spans="1:15" ht="29" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="11">
         <v>8421</v>
@@ -4535,20 +4545,20 @@
         <v>101</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>102</v>
@@ -4613,7 +4623,7 @@
         <v>103</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>33</v>
@@ -4625,12 +4635,12 @@
         <v>20</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>117</v>
@@ -4647,7 +4657,7 @@
     </row>
     <row r="49" spans="1:15" ht="29" thickBot="1">
       <c r="A49" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="11">
         <v>8642</v>
@@ -4656,16 +4666,16 @@
         <v>89</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>28</v>
@@ -4673,7 +4683,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>117</v>
@@ -4699,7 +4709,7 @@
         <v>87</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>26</v>
@@ -4712,10 +4722,10 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="M50" s="11">
         <v>50</v>
@@ -4729,7 +4739,7 @@
     </row>
     <row r="51" spans="1:15" ht="29" thickBot="1">
       <c r="A51" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" s="11">
         <v>9234</v>
@@ -4738,13 +4748,13 @@
         <v>143</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
@@ -4755,7 +4765,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>117</v>
@@ -4820,16 +4830,16 @@
         <v>89</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>51</v>
@@ -4837,10 +4847,10 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M53" s="11">
         <v>45</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8571D36-F564-544F-80FF-2F58CE672EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5CF44-E501-3E45-86D0-C0022E6F55E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="423">
   <si>
     <t>學生姓名</t>
   </si>
@@ -1304,6 +1304,32 @@
   </si>
   <si>
     <t>數位行銷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>星期五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00-15:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>學分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1374,6 +1400,13 @@
       <name val="PMingLiU"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1417,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,6 +1478,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1705,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1687,7 +1723,9 @@
       <c r="C1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1702,7 +1740,9 @@
       <c r="C2" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1717,7 +1757,9 @@
       <c r="C3" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1732,7 +1774,9 @@
       <c r="C4" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1747,7 +1791,9 @@
       <c r="C5" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1762,7 +1808,9 @@
       <c r="C6" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1777,7 +1825,9 @@
       <c r="C7" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1792,7 +1842,9 @@
       <c r="C8" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1807,7 +1859,9 @@
       <c r="C9" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1822,7 +1876,9 @@
       <c r="C10" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1837,7 +1893,9 @@
       <c r="C11" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1852,7 +1910,9 @@
       <c r="C12" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1867,7 +1927,9 @@
       <c r="C13" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1882,6 +1944,9 @@
       <c r="C14" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -1893,6 +1958,9 @@
       <c r="C15" s="6" t="s">
         <v>362</v>
       </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -1904,8 +1972,11 @@
       <c r="C16" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>318</v>
       </c>
@@ -1915,8 +1986,11 @@
       <c r="C17" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>320</v>
       </c>
@@ -1926,8 +2000,11 @@
       <c r="C18" s="6" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>322</v>
       </c>
@@ -1937,8 +2014,11 @@
       <c r="C19" s="6" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>324</v>
       </c>
@@ -1948,8 +2028,11 @@
       <c r="C20" s="6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>326</v>
       </c>
@@ -1959,8 +2042,11 @@
       <c r="C21" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>328</v>
       </c>
@@ -1970,8 +2056,11 @@
       <c r="C22" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>330</v>
       </c>
@@ -1981,8 +2070,11 @@
       <c r="C23" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>332</v>
       </c>
@@ -1992,8 +2084,11 @@
       <c r="C24" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>334</v>
       </c>
@@ -2003,8 +2098,11 @@
       <c r="C25" s="6" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>336</v>
       </c>
@@ -2014,8 +2112,11 @@
       <c r="C26" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>338</v>
       </c>
@@ -2025,8 +2126,11 @@
       <c r="C27" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>340</v>
       </c>
@@ -2036,8 +2140,11 @@
       <c r="C28" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>342</v>
       </c>
@@ -2047,8 +2154,11 @@
       <c r="C29" s="6" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>344</v>
       </c>
@@ -2057,6 +2167,9 @@
       </c>
       <c r="C30" s="6" t="s">
         <v>377</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2614,17 +2727,23 @@
   <dimension ref="A1:O999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" customWidth="1"/>
-    <col min="12" max="12" width="45.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="0.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
@@ -2674,15 +2793,15 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" thickBot="1">
+    <row r="2" spans="1:15" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="11">
         <v>1562</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
+      <c r="C2" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>125</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fengchia-my.sharepoint.com/personal/d1150224_o365_fcu_edu_tw/Documents/文件/GitHub/group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1635B3CC-5BA9-4B40-B328-CC492F4F9168}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6924" yWindow="936" windowWidth="14952" windowHeight="11304" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="423">
   <si>
     <t>學生姓名</t>
   </si>
@@ -1304,13 +1304,59 @@
   </si>
   <si>
     <t>個人課表/A9876526.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00-15:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 08:00-10:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1367,6 +1413,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1410,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1436,6 +1497,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1662,9 +1726,9 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -2097,7 +2161,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
@@ -2355,11 +2419,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2603,21 +2667,21 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="31.33203125" customWidth="1"/>
     <col min="12" max="12" width="45.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="27.45" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
@@ -2664,7 +2728,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" thickBot="1">
+    <row r="2" spans="1:15" ht="27" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
@@ -2703,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" thickBot="1">
+    <row r="3" spans="1:15" ht="27" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>260</v>
       </c>
@@ -2742,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" thickBot="1">
+    <row r="4" spans="1:15" ht="27" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>232</v>
       </c>
@@ -2785,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" thickBot="1">
+    <row r="5" spans="1:15" ht="27" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
@@ -2832,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" thickBot="1">
+    <row r="6" spans="1:15" ht="27" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
@@ -2871,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="29" thickBot="1">
+    <row r="7" spans="1:15" ht="27" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2910,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" thickBot="1">
+    <row r="8" spans="1:15" ht="27" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>280</v>
       </c>
@@ -2949,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" thickBot="1">
+    <row r="9" spans="1:15" ht="27" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -2988,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" thickBot="1">
+    <row r="10" spans="1:15" ht="27" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
@@ -3035,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" thickBot="1">
+    <row r="11" spans="1:15" ht="27" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>249</v>
       </c>
@@ -3078,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29" thickBot="1">
+    <row r="12" spans="1:15" ht="27" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>182</v>
       </c>
@@ -3121,7 +3185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="29" thickBot="1">
+    <row r="13" spans="1:15" ht="27" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>114</v>
       </c>
@@ -3164,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="29" thickBot="1">
+    <row r="14" spans="1:15" ht="27" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>173</v>
       </c>
@@ -3207,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="29" thickBot="1">
+    <row r="15" spans="1:15" ht="27" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>155</v>
       </c>
@@ -3250,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" thickBot="1">
+    <row r="16" spans="1:15" ht="27" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -3293,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" thickBot="1">
+    <row r="17" spans="1:15" ht="27" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>201</v>
       </c>
@@ -3336,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" thickBot="1">
+    <row r="18" spans="1:15" ht="27" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>146</v>
       </c>
@@ -3383,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" thickBot="1">
+    <row r="19" spans="1:15" ht="27" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>225</v>
       </c>
@@ -3426,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" thickBot="1">
+    <row r="20" spans="1:15" ht="27" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>133</v>
       </c>
@@ -3469,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" thickBot="1">
+    <row r="21" spans="1:15" ht="27" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>176</v>
       </c>
@@ -3508,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" thickBot="1">
+    <row r="22" spans="1:15" ht="27" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>106</v>
       </c>
@@ -3551,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" thickBot="1">
+    <row r="23" spans="1:15" ht="27" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -3590,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" thickBot="1">
+    <row r="24" spans="1:15" ht="27" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>110</v>
       </c>
@@ -3631,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" thickBot="1">
+    <row r="25" spans="1:15" ht="27" thickBot="1">
       <c r="A25" s="10" t="s">
         <v>284</v>
       </c>
@@ -3674,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" thickBot="1">
+    <row r="26" spans="1:15" ht="27" thickBot="1">
       <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
@@ -3721,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" thickBot="1">
+    <row r="27" spans="1:15" ht="27" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>216</v>
       </c>
@@ -3764,7 +3828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" thickBot="1">
+    <row r="28" spans="1:15" ht="27" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
@@ -3807,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" thickBot="1">
+    <row r="29" spans="1:15" ht="27" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>179</v>
       </c>
@@ -3848,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" thickBot="1">
+    <row r="30" spans="1:15" ht="27" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>195</v>
       </c>
@@ -3891,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="29" thickBot="1">
+    <row r="31" spans="1:15" ht="27" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>272</v>
       </c>
@@ -3930,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" thickBot="1">
+    <row r="32" spans="1:15" ht="27" thickBot="1">
       <c r="A32" s="10" t="s">
         <v>241</v>
       </c>
@@ -3973,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" thickBot="1">
+    <row r="33" spans="1:15" ht="27" thickBot="1">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -4016,15 +4080,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" thickBot="1">
+    <row r="34" spans="1:15" ht="27.6" thickBot="1">
       <c r="A34" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B34" s="11">
         <v>5864</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>88</v>
+      <c r="C34" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>119</v>
@@ -4059,15 +4123,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" thickBot="1">
+    <row r="35" spans="1:15" ht="27.6" thickBot="1">
       <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="11">
         <v>6395</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>170</v>
+      <c r="C35" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>171</v>
@@ -4100,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" thickBot="1">
+    <row r="36" spans="1:15" ht="27" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -4143,7 +4207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="29" thickBot="1">
+    <row r="37" spans="1:15" ht="27" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>264</v>
       </c>
@@ -4186,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" thickBot="1">
+    <row r="38" spans="1:15" ht="27" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>109</v>
       </c>
@@ -4229,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" thickBot="1">
+    <row r="39" spans="1:15" ht="27" thickBot="1">
       <c r="A39" s="10" t="s">
         <v>96</v>
       </c>
@@ -4270,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29" thickBot="1">
+    <row r="40" spans="1:15" ht="27" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>149</v>
       </c>
@@ -4313,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="29" thickBot="1">
+    <row r="41" spans="1:15" ht="27" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>192</v>
       </c>
@@ -4356,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" thickBot="1">
+    <row r="42" spans="1:15" ht="27" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>276</v>
       </c>
@@ -4399,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29" thickBot="1">
+    <row r="43" spans="1:15" ht="27" thickBot="1">
       <c r="A43" s="10" t="s">
         <v>142</v>
       </c>
@@ -4442,7 +4506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" thickBot="1">
+    <row r="44" spans="1:15" ht="27" thickBot="1">
       <c r="A44" s="10" t="s">
         <v>166</v>
       </c>
@@ -4481,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" thickBot="1">
+    <row r="45" spans="1:15" ht="27" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>198</v>
       </c>
@@ -4524,7 +4588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" thickBot="1">
+    <row r="46" spans="1:15" ht="27" thickBot="1">
       <c r="A46" s="10" t="s">
         <v>220</v>
       </c>
@@ -4563,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="29" thickBot="1">
+    <row r="47" spans="1:15" ht="27" thickBot="1">
       <c r="A47" s="10" t="s">
         <v>152</v>
       </c>
@@ -4602,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="29" thickBot="1">
+    <row r="48" spans="1:15" ht="27" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>111</v>
       </c>
@@ -4645,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" thickBot="1">
+    <row r="49" spans="1:15" ht="27" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>268</v>
       </c>
@@ -4688,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="29" thickBot="1">
+    <row r="50" spans="1:15" ht="27" thickBot="1">
       <c r="A50" s="10" t="s">
         <v>113</v>
       </c>
@@ -4727,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="29" thickBot="1">
+    <row r="51" spans="1:15" ht="27" thickBot="1">
       <c r="A51" s="10" t="s">
         <v>256</v>
       </c>
@@ -4770,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="29" thickBot="1">
+    <row r="52" spans="1:15" ht="27" thickBot="1">
       <c r="A52" s="10" t="s">
         <v>137</v>
       </c>
@@ -4809,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="29" thickBot="1">
+    <row r="53" spans="1:15" ht="27" thickBot="1">
       <c r="A53" s="10" t="s">
         <v>146</v>
       </c>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34825DC5-D835-408A-A870-1C9C311F9D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="376">
   <si>
     <t>學生姓名</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>目前可修課人數餘額</t>
-  </si>
-  <si>
-    <t>星期三 10:00-12:00</t>
   </si>
   <si>
     <t>星期一 14:00-16:00</t>
@@ -945,18 +942,12 @@
     <t>D1234567</t>
   </si>
   <si>
-    <t>李小華</t>
-  </si>
-  <si>
     <t>陳大仁</t>
   </si>
   <si>
     <t>D6543210</t>
   </si>
   <si>
-    <t>D3210987</t>
-  </si>
-  <si>
     <t>D2109876</t>
   </si>
   <si>
@@ -966,18 +957,6 @@
     <t>D6543201</t>
   </si>
   <si>
-    <t>D5432167</t>
-  </si>
-  <si>
-    <t>D4321098</t>
-  </si>
-  <si>
-    <t>陳美華</t>
-  </si>
-  <si>
-    <t>D3210986</t>
-  </si>
-  <si>
     <t>陳欣怡</t>
   </si>
   <si>
@@ -996,78 +975,6 @@
     <t>D6543217</t>
   </si>
   <si>
-    <t>蔡明珠</t>
-  </si>
-  <si>
-    <t>D5432190</t>
-  </si>
-  <si>
-    <t>劉家榮</t>
-  </si>
-  <si>
-    <t>D2109873</t>
-  </si>
-  <si>
-    <t>鄭心怡</t>
-  </si>
-  <si>
-    <t>D3210975</t>
-  </si>
-  <si>
-    <t>吳俊傑</t>
-  </si>
-  <si>
-    <t>D8765431</t>
-  </si>
-  <si>
-    <t>陳美妍</t>
-  </si>
-  <si>
-    <t>D5432156</t>
-  </si>
-  <si>
-    <t>林佳儀</t>
-  </si>
-  <si>
-    <t>D7654324</t>
-  </si>
-  <si>
-    <t>蘇玉芳</t>
-  </si>
-  <si>
-    <t>D3210864</t>
-  </si>
-  <si>
-    <t>蔡家瑩</t>
-  </si>
-  <si>
-    <t>D2109872</t>
-  </si>
-  <si>
-    <t>陳文豪</t>
-  </si>
-  <si>
-    <t>D8765409</t>
-  </si>
-  <si>
-    <t>劉子彥</t>
-  </si>
-  <si>
-    <t>D5432198</t>
-  </si>
-  <si>
-    <t>張雅雯</t>
-  </si>
-  <si>
-    <t>D9876506</t>
-  </si>
-  <si>
-    <t>陳宥廷</t>
-  </si>
-  <si>
-    <t>D7654312</t>
-  </si>
-  <si>
     <t>鄭家豪</t>
   </si>
   <si>
@@ -1078,10 +985,6 @@
   </si>
   <si>
     <t>D5432165</t>
-  </si>
-  <si>
-    <t>D7654321</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D2345678</t>
@@ -1095,18 +998,12 @@
     <t>個人課表\D1234567.xlsx</t>
   </si>
   <si>
-    <t>個人課表\D7654321.xlsx</t>
-  </si>
-  <si>
     <t>個人課表\D2345678.xlsx</t>
   </si>
   <si>
     <t>個人課表\D6543210.xlsx</t>
   </si>
   <si>
-    <t>個人課表\D3210987.xlsx</t>
-  </si>
-  <si>
     <t>個人課表\D2109876.xlsx</t>
   </si>
   <si>
@@ -1119,15 +1016,6 @@
     <t>個人課表\D6543201.xlsx</t>
   </si>
   <si>
-    <t>個人課表\D5432167.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D4321098.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210986.xlsx</t>
-  </si>
-  <si>
     <t>個人課表\D1234560.xlsx</t>
   </si>
   <si>
@@ -1135,42 +1023,6 @@
   </si>
   <si>
     <t>個人課表\D6543217.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432190.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109873.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210975.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765431.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432156.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654324.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D3210864.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D2109872.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D8765409.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D5432198.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D9876506.xlsx</t>
-  </si>
-  <si>
-    <t>個人課表\D7654312.xlsx</t>
   </si>
   <si>
     <t>個人課表\D6543203.xlsx</t>
@@ -1304,13 +1156,105 @@
   </si>
   <si>
     <t>個人課表/A9876526.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00-16:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00-12:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00-12:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>星期二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00-16:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1367,6 +1311,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1410,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1436,6 +1395,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1656,15 +1618,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1675,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1687,10 +1649,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1699,13 +1661,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1714,13 +1676,13 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1729,13 +1691,13 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1744,13 +1706,13 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1759,13 +1721,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1774,13 +1736,13 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1789,298 +1751,74 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>326</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>327</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E4DDE1D8-6446-4F60-A395-6A56D2961077}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{25D814AA-057D-4FD9-8086-A58B789874B0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B2591132-7001-4E67-A04B-D1A0FEA2A9A6}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0AB20565-D4F9-4C76-AA94-0C304D5A4B9E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{54A846D7-5E17-40BA-8BF4-635198A5C02B}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{7DD27130-1391-464C-841F-34E51B079500}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{132D4832-90D3-4FD9-B721-20814730B739}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{38B3B887-5939-469E-A38D-9CE888E7E142}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{87B9965E-2AE5-4920-8DE0-F6C93FC82236}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{E9EBEEE7-4348-4D64-93DF-CED86864D532}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{75DCA3EB-38DE-409A-9EDE-F319A9332F6A}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{FA7D31FD-5122-4DF3-9FAC-C8ED95A2791E}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{A59615CD-A81B-4346-808D-8323B527C772}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{0262EBE0-9B8C-47DD-9847-20191A019443}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{09069171-0D20-4178-B1BB-FA33501CB054}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{5B36B684-1788-46AC-BEA0-B63D9B8639EF}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{3871F35F-AEAD-4ACF-B693-7763697376E0}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{6DF967A7-2776-47CD-B505-3B39650DD259}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{E17D4241-B94C-4B85-AFA8-AD6DA086FBA6}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{BE7B5E3A-D61B-4F04-8713-CD7C92D5E6EF}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{EDAAFF91-2C88-45A8-8C45-42BC6A40C193}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{3F94B0E1-DFCA-4792-84CB-CF24BA19DEE5}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{238FD634-0BF5-4DC5-80F5-9F5B7C9B177C}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{55640415-45CB-4146-B403-DF3F3BE849A7}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{18AD1FF0-B56F-4C5D-B343-D67649433CE3}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{A8D9DBEE-23D4-4FE2-A896-29D401DB32A5}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{B5585F83-E2CC-4927-B621-F5C86623A819}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{B71A4FFF-DE49-43D0-A753-93A4E5961E8B}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{05F460FF-93F4-4B01-948E-17588AEA74FE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E3BE0106-C0BC-443F-BF54-40841A12AA17}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{74FB5B31-D43D-4B68-856D-116624BF0486}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FFE4BA3D-59B9-4EDD-883F-50302D8A4224}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7731764E-709F-484E-9638-2FFD9DAB8894}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D531E93D-92A5-426F-A26E-9B38F3E805F0}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{BA45EB57-FA08-4590-88A7-789A44BA06F1}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F14FFAB2-F90D-47BC-95D3-DF96742306FC}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{B64168EF-19BA-4BCE-9E0E-539750D37B85}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{BEA796CC-3D0C-4E1B-BE5D-509BDD2FA60A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{7C36FC15-964F-4807-80F3-ED0BCD17C9FA}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{82508BA6-2416-4DE4-8CB0-EA164A4876B6}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{37FB37DE-DFD3-4B24-AE78-EB2A2F85CAF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2097,9 +1835,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -2110,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2123,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2136,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2149,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2162,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2175,7 +1913,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2188,7 +1926,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2201,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2214,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2227,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2240,7 +1978,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2253,7 +1991,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2266,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2279,7 +2017,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2292,7 +2030,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2305,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2318,7 +2056,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2355,11 +2093,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2369,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2380,18 +2118,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2402,73 +2140,73 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -2479,7 +2217,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -2490,29 +2228,29 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -2523,51 +2261,51 @@
         <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2603,18 +2341,18 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="H20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" customWidth="1"/>
-    <col min="12" max="12" width="45.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="11" max="11" width="31.36328125" customWidth="1"/>
+    <col min="12" max="12" width="45.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
@@ -2637,16 +2375,16 @@
         <v>77</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>78</v>
@@ -2661,21 +2399,21 @@
         <v>81</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="29" thickBot="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="26" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11">
         <v>1562</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
+      <c r="C2" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>26</v>
@@ -2688,10 +2426,10 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M2" s="11">
         <v>60</v>
@@ -2703,34 +2441,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" thickBot="1">
+    <row r="3" spans="1:15" ht="25.5" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="11">
         <v>1573</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M3" s="11">
         <v>50</v>
@@ -2742,38 +2480,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" thickBot="1">
+    <row r="4" spans="1:15" ht="25.5" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="11">
         <v>1675</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="11">
         <v>50</v>
@@ -2785,18 +2523,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" thickBot="1">
+    <row r="5" spans="1:15" ht="25.5" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="11">
         <v>1759</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>22</v>
@@ -2817,33 +2555,33 @@
         <v>13</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M5" s="11">
         <v>55</v>
       </c>
       <c r="N5" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O5" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" thickBot="1">
+    <row r="6" spans="1:15" ht="25.5" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="11">
         <v>1849</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>56</v>
@@ -2856,10 +2594,10 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="11">
         <v>50</v>
@@ -2871,18 +2609,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="29" thickBot="1">
+    <row r="7" spans="1:15" ht="25.5" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="11">
         <v>1958</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>56</v>
@@ -2895,10 +2633,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M7" s="11">
         <v>40</v>
@@ -2910,34 +2648,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" thickBot="1">
+    <row r="8" spans="1:15" ht="25.5" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="11">
         <v>1982</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M8" s="11">
         <v>50</v>
@@ -2949,18 +2687,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" thickBot="1">
+    <row r="9" spans="1:15" ht="25.5" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="11">
         <v>1987</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>39</v>
@@ -2973,33 +2711,33 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M9" s="11">
         <v>60</v>
       </c>
       <c r="N9" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O9" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" thickBot="1">
+    <row r="10" spans="1:15" ht="25.5" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="11">
         <v>2365</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>49</v>
@@ -3020,10 +2758,10 @@
         <v>38</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M10" s="11">
         <v>55</v>
@@ -3035,24 +2773,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" thickBot="1">
+    <row r="11" spans="1:15" ht="25.5" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="11">
         <v>2374</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>62</v>
@@ -3063,10 +2801,10 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="11">
         <v>50</v>
@@ -3078,18 +2816,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29" thickBot="1">
+    <row r="12" spans="1:15" ht="25.5" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="11">
         <v>2468</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>18</v>
@@ -3106,10 +2844,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="11">
         <v>45</v>
@@ -3121,18 +2859,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="29" thickBot="1">
+    <row r="13" spans="1:15" ht="25.5" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11">
         <v>2473</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>52</v>
@@ -3149,10 +2887,10 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="M13" s="11">
         <v>40</v>
@@ -3164,18 +2902,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="29" thickBot="1">
+    <row r="14" spans="1:15" ht="25.5" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="11">
         <v>2584</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>6</v>
@@ -3192,33 +2930,33 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="11">
         <v>60</v>
       </c>
       <c r="N14" s="11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O14" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="29" thickBot="1">
+    <row r="15" spans="1:15" ht="25.5" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="11">
         <v>2745</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>52</v>
@@ -3235,10 +2973,10 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="11">
         <v>50</v>
@@ -3250,18 +2988,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" thickBot="1">
+    <row r="16" spans="1:15" ht="25.5" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="11">
         <v>2974</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>45</v>
@@ -3278,10 +3016,10 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="M16" s="11">
         <v>40</v>
@@ -3293,18 +3031,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" thickBot="1">
+    <row r="17" spans="1:15" ht="25.5" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="11">
         <v>2986</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>22</v>
@@ -3321,10 +3059,10 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17" s="11">
         <v>50</v>
@@ -3336,18 +3074,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" thickBot="1">
+    <row r="18" spans="1:15" ht="25.5" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="11">
         <v>3641</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>22</v>
@@ -3368,10 +3106,10 @@
         <v>55</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M18" s="11">
         <v>50</v>
@@ -3383,24 +3121,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" thickBot="1">
+    <row r="19" spans="1:15" ht="25.5" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11">
         <v>3741</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>58</v>
@@ -3411,10 +3149,10 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M19" s="11">
         <v>50</v>
@@ -3426,18 +3164,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" thickBot="1">
+    <row r="20" spans="1:15" ht="25.5" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="11">
         <v>3827</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>64</v>
@@ -3454,10 +3192,10 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="11">
         <v>40</v>
@@ -3469,18 +3207,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" thickBot="1">
+    <row r="21" spans="1:15" ht="26" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="11">
         <v>3845</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>88</v>
+      <c r="C21" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>10</v>
@@ -3493,10 +3231,10 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="11">
         <v>50</v>
@@ -3508,18 +3246,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" thickBot="1">
+    <row r="22" spans="1:15" ht="25.5" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="11">
         <v>4157</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>52</v>
@@ -3536,10 +3274,10 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="11">
         <v>40</v>
@@ -3551,34 +3289,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" thickBot="1">
+    <row r="23" spans="1:15" ht="25.5" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="11">
         <v>4217</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M23" s="11">
         <v>50</v>
@@ -3590,18 +3328,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" thickBot="1">
+    <row r="24" spans="1:15" ht="25.5" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="11">
         <v>4361</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>64</v>
@@ -3616,10 +3354,10 @@
         <v>59</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24" s="11">
         <v>50</v>
@@ -3631,24 +3369,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" thickBot="1">
+    <row r="25" spans="1:15" ht="25.5" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="11">
         <v>4631</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>35</v>
@@ -3659,10 +3397,10 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M25" s="11">
         <v>45</v>
@@ -3674,18 +3412,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" thickBot="1">
+    <row r="26" spans="1:15" ht="25.5" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="11">
         <v>4731</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>39</v>
@@ -3706,10 +3444,10 @@
         <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26" s="11">
         <v>45</v>
@@ -3721,18 +3459,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" thickBot="1">
+    <row r="27" spans="1:15" ht="25.5" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="11">
         <v>4765</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>29</v>
@@ -3749,10 +3487,10 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M27" s="11">
         <v>50</v>
@@ -3764,24 +3502,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" thickBot="1">
+    <row r="28" spans="1:15" ht="25.5" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="11">
         <v>4823</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>20</v>
@@ -3792,10 +3530,10 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M28" s="11">
         <v>45</v>
@@ -3807,18 +3545,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" thickBot="1">
+    <row r="29" spans="1:15" ht="25.5" thickBot="1">
       <c r="A29" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="11">
         <v>4927</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>14</v>
@@ -3833,10 +3571,10 @@
         <v>44</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M29" s="11">
         <v>40</v>
@@ -3848,18 +3586,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" thickBot="1">
+    <row r="30" spans="1:15" ht="25.5" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="11">
         <v>5276</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>68</v>
@@ -3876,10 +3614,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="11">
         <v>50</v>
@@ -3891,34 +3629,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="29" thickBot="1">
+    <row r="31" spans="1:15" ht="25.5" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="11">
         <v>5328</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M31" s="11">
         <v>50</v>
@@ -3930,24 +3668,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" thickBot="1">
+    <row r="32" spans="1:15" ht="25.5" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="11">
         <v>5698</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>31</v>
@@ -3958,10 +3696,10 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="11">
         <v>40</v>
@@ -3973,18 +3711,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" thickBot="1">
+    <row r="33" spans="1:15" ht="25.5" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="11">
         <v>5763</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>14</v>
@@ -4001,10 +3739,10 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33" s="11">
         <v>50</v>
@@ -4016,18 +3754,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" thickBot="1">
+    <row r="34" spans="1:15" ht="25.5" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="11">
         <v>5864</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>68</v>
@@ -4044,10 +3782,10 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="M34" s="11">
         <v>50</v>
@@ -4059,18 +3797,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" thickBot="1">
+    <row r="35" spans="1:15" ht="25.5" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="11">
         <v>6395</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>60</v>
@@ -4085,10 +3823,10 @@
         <v>67</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M35" s="11">
         <v>50</v>
@@ -4100,18 +3838,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" thickBot="1">
+    <row r="36" spans="1:15" ht="25.5" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="11">
         <v>6872</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>39</v>
@@ -4128,10 +3866,10 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M36" s="11">
         <v>40</v>
@@ -4143,24 +3881,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="29" thickBot="1">
+    <row r="37" spans="1:15" ht="25.5" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="11">
         <v>7312</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>24</v>
@@ -4171,10 +3909,10 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M37" s="11">
         <v>40</v>
@@ -4186,18 +3924,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" thickBot="1">
+    <row r="38" spans="1:15" ht="25.5" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="11">
         <v>7423</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>29</v>
@@ -4214,10 +3952,10 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M38" s="11">
         <v>45</v>
@@ -4229,36 +3967,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" thickBot="1">
+    <row r="39" spans="1:15" ht="25.5" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="11">
         <v>7436</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="G39" s="10" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" s="11">
         <v>60</v>
@@ -4270,18 +4008,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29" thickBot="1">
+    <row r="40" spans="1:15" ht="25.5" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="11">
         <v>7546</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>29</v>
@@ -4298,10 +4036,10 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40" s="11">
         <v>60</v>
@@ -4313,18 +4051,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="29" thickBot="1">
+    <row r="41" spans="1:15" ht="25.5" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="11">
         <v>7631</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>56</v>
@@ -4341,10 +4079,10 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M41" s="11">
         <v>45</v>
@@ -4356,24 +4094,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" thickBot="1">
+    <row r="42" spans="1:15" ht="25.5" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="11">
         <v>7641</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -4384,10 +4122,10 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M42" s="11">
         <v>40</v>
@@ -4399,18 +4137,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29" thickBot="1">
+    <row r="43" spans="1:15" ht="25.5" thickBot="1">
       <c r="A43" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="11">
         <v>7642</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>6</v>
@@ -4427,10 +4165,10 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M43" s="11">
         <v>45</v>
@@ -4442,18 +4180,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" thickBot="1">
+    <row r="44" spans="1:15" ht="25.5" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="11">
         <v>8126</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>49</v>
@@ -4466,10 +4204,10 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M44" s="11">
         <v>55</v>
@@ -4481,18 +4219,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" thickBot="1">
+    <row r="45" spans="1:15" ht="25.5" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="11">
         <v>8194</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>49</v>
@@ -4501,7 +4239,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>28</v>
@@ -4509,10 +4247,10 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M45" s="11">
         <v>45</v>
@@ -4524,34 +4262,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" thickBot="1">
+    <row r="46" spans="1:15" ht="25.5" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="11">
         <v>8421</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" s="11">
         <v>40</v>
@@ -4563,18 +4301,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="29" thickBot="1">
+    <row r="47" spans="1:15" ht="26" thickBot="1">
       <c r="A47" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="11">
         <v>8430</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>82</v>
+      <c r="C47" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>10</v>
@@ -4587,10 +4325,10 @@
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M47" s="11">
         <v>45</v>
@@ -4602,18 +4340,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="29" thickBot="1">
+    <row r="48" spans="1:15" ht="25.5" thickBot="1">
       <c r="A48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="11">
         <v>8530</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>33</v>
@@ -4625,15 +4363,15 @@
         <v>20</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M48" s="11">
         <v>50</v>
@@ -4645,27 +4383,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" thickBot="1">
+    <row r="49" spans="1:15" ht="25.5" thickBot="1">
       <c r="A49" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="11">
         <v>8642</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>28</v>
@@ -4673,10 +4411,10 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M49" s="11">
         <v>55</v>
@@ -4688,18 +4426,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="29" thickBot="1">
+    <row r="50" spans="1:15" ht="26" thickBot="1">
       <c r="A50" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="11">
         <v>8963</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>87</v>
+      <c r="C50" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>26</v>
@@ -4712,10 +4450,10 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="M50" s="11">
         <v>50</v>
@@ -4727,24 +4465,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="29" thickBot="1">
+    <row r="51" spans="1:15" ht="25.5" thickBot="1">
       <c r="A51" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" s="11">
         <v>9234</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
@@ -4755,10 +4493,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M51" s="11">
         <v>50</v>
@@ -4770,18 +4508,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="29" thickBot="1">
+    <row r="52" spans="1:15" ht="25.5" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="11">
         <v>9584</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>18</v>
@@ -4794,10 +4532,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M52" s="11">
         <v>45</v>
@@ -4809,27 +4547,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="29" thickBot="1">
+    <row r="53" spans="1:15" ht="25.5" thickBot="1">
       <c r="A53" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="11">
         <v>9823</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>51</v>
@@ -4837,10 +4575,10 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M53" s="11">
         <v>45</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC14D-6649-7347-94FC-D711488AA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1158842-B451-4CA9-BCAE-8A8CF92FC398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16880" windowHeight="15900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="423">
   <si>
     <t>學生姓名</t>
   </si>
@@ -824,9 +824,6 @@
     <t>C212</t>
   </si>
   <si>
-    <t>B7654332</t>
-  </si>
-  <si>
     <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
   </si>
   <si>
@@ -1304,6 +1301,18 @@
   </si>
   <si>
     <t>個人課表/A9876526.xlsx</t>
+  </si>
+  <si>
+    <t>B7654332</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1234553</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1234555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1659,12 +1668,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1687,10 +1696,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1699,13 +1708,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1714,13 +1723,13 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1732,10 +1741,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1747,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1762,10 +1771,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1777,10 +1786,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1792,10 +1801,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1807,10 +1816,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1822,10 +1831,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1837,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1849,13 +1858,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1864,189 +1873,189 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2094,12 +2103,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -2123,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2136,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2149,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2162,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2175,7 +2184,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2188,7 +2197,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2201,7 +2210,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2214,7 +2223,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2227,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2240,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2253,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2266,7 +2275,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2276,10 +2285,10 @@
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>421</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2292,7 +2301,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2305,7 +2314,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2318,7 +2327,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2355,11 +2364,11 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2380,18 +2389,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2402,73 +2411,73 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -2479,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -2490,29 +2499,29 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -2523,51 +2532,51 @@
         <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2603,18 +2612,18 @@
   </sheetPr>
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" customWidth="1"/>
-    <col min="12" max="12" width="45.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="11" max="11" width="31.36328125" customWidth="1"/>
+    <col min="12" max="12" width="45.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.5" customHeight="1" thickBot="1">
@@ -2637,16 +2646,16 @@
         <v>77</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>78</v>
@@ -2661,10 +2670,10 @@
         <v>81</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="29" thickBot="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" thickBot="1">
+    <row r="3" spans="1:15" ht="25.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>260</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" thickBot="1">
+    <row r="4" spans="1:15" ht="25.5" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>232</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2785,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" thickBot="1">
+    <row r="5" spans="1:15" ht="25.5" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" thickBot="1">
+    <row r="6" spans="1:15" ht="25.5" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="29" thickBot="1">
+    <row r="7" spans="1:15" ht="25.5" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2910,9 +2919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" thickBot="1">
+    <row r="8" spans="1:15" ht="25.5" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="11">
         <v>1982</v>
@@ -2921,20 +2930,20 @@
         <v>101</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>117</v>
@@ -2949,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" thickBot="1">
+    <row r="9" spans="1:15" ht="25.5" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" thickBot="1">
+    <row r="10" spans="1:15" ht="25.5" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" thickBot="1">
+    <row r="11" spans="1:15" ht="25.5" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>249</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29" thickBot="1">
+    <row r="12" spans="1:15" ht="25.5" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>182</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="29" thickBot="1">
+    <row r="13" spans="1:15" ht="25.5" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>114</v>
       </c>
@@ -3164,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="29" thickBot="1">
+    <row r="14" spans="1:15" ht="25.5" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>173</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="29" thickBot="1">
+    <row r="15" spans="1:15" ht="25.5" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>155</v>
       </c>
@@ -3250,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" thickBot="1">
+    <row r="16" spans="1:15" ht="25.5" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" thickBot="1">
+    <row r="17" spans="1:15" ht="25.5" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>201</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" thickBot="1">
+    <row r="18" spans="1:15" ht="25.5" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>146</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" thickBot="1">
+    <row r="19" spans="1:15" ht="25.5" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>225</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" thickBot="1">
+    <row r="20" spans="1:15" ht="25.5" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>133</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" thickBot="1">
+    <row r="21" spans="1:15" ht="25.5" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>176</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" thickBot="1">
+    <row r="22" spans="1:15" ht="25.5" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>106</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" thickBot="1">
+    <row r="23" spans="1:15" ht="25.5" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" thickBot="1">
+    <row r="24" spans="1:15" ht="25.5" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>110</v>
       </c>
@@ -3631,9 +3640,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" thickBot="1">
+    <row r="25" spans="1:15" ht="25.5" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="11">
         <v>4631</v>
@@ -3642,13 +3651,13 @@
         <v>92</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>35</v>
@@ -3659,7 +3668,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>189</v>
@@ -3674,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" thickBot="1">
+    <row r="26" spans="1:15" ht="25.5" thickBot="1">
       <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" thickBot="1">
+    <row r="27" spans="1:15" ht="25.5" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>216</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" thickBot="1">
+    <row r="28" spans="1:15" ht="25.5" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" thickBot="1">
+    <row r="29" spans="1:15" ht="25.5" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>179</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" thickBot="1">
+    <row r="30" spans="1:15" ht="25.5" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>195</v>
       </c>
@@ -3891,9 +3900,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="29" thickBot="1">
+    <row r="31" spans="1:15" ht="25.5" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="11">
         <v>5328</v>
@@ -3902,20 +3911,20 @@
         <v>90</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>117</v>
@@ -3930,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" thickBot="1">
+    <row r="32" spans="1:15" ht="25.5" thickBot="1">
       <c r="A32" s="10" t="s">
         <v>241</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" thickBot="1">
+    <row r="33" spans="1:15" ht="25.5" thickBot="1">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" thickBot="1">
+    <row r="34" spans="1:15" ht="25.5" thickBot="1">
       <c r="A34" s="10" t="s">
         <v>118</v>
       </c>
@@ -4059,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" thickBot="1">
+    <row r="35" spans="1:15" ht="25.5" thickBot="1">
       <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" thickBot="1">
+    <row r="36" spans="1:15" ht="25.5" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -4143,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="29" thickBot="1">
+    <row r="37" spans="1:15" ht="25.5" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>264</v>
       </c>
@@ -4160,7 +4169,7 @@
         <v>56</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>24</v>
@@ -4171,7 +4180,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>102</v>
@@ -4186,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" thickBot="1">
+    <row r="38" spans="1:15" ht="25.5" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>109</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" thickBot="1">
+    <row r="39" spans="1:15" ht="25.5" thickBot="1">
       <c r="A39" s="10" t="s">
         <v>96</v>
       </c>
@@ -4249,7 +4258,7 @@
         <v>239</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>28</v>
@@ -4270,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29" thickBot="1">
+    <row r="40" spans="1:15" ht="25.5" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>149</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="29" thickBot="1">
+    <row r="41" spans="1:15" ht="25.5" thickBot="1">
       <c r="A41" s="10" t="s">
         <v>192</v>
       </c>
@@ -4356,9 +4365,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" thickBot="1">
+    <row r="42" spans="1:15" ht="25.5" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="11">
         <v>7641</v>
@@ -4367,13 +4376,13 @@
         <v>159</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -4384,7 +4393,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>117</v>
@@ -4399,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29" thickBot="1">
+    <row r="43" spans="1:15" ht="25.5" thickBot="1">
       <c r="A43" s="10" t="s">
         <v>142</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" thickBot="1">
+    <row r="44" spans="1:15" ht="25.5" thickBot="1">
       <c r="A44" s="10" t="s">
         <v>166</v>
       </c>
@@ -4459,7 +4468,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4481,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" thickBot="1">
+    <row r="45" spans="1:15" ht="25.5" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>198</v>
       </c>
@@ -4501,7 +4510,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>28</v>
@@ -4524,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" thickBot="1">
+    <row r="46" spans="1:15" ht="25.5" thickBot="1">
       <c r="A46" s="10" t="s">
         <v>220</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="29" thickBot="1">
+    <row r="47" spans="1:15" ht="25.5" thickBot="1">
       <c r="A47" s="10" t="s">
         <v>152</v>
       </c>
@@ -4602,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="29" thickBot="1">
+    <row r="48" spans="1:15" ht="25.5" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>111</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -4645,9 +4654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" thickBot="1">
+    <row r="49" spans="1:15" ht="25.5" thickBot="1">
       <c r="A49" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="11">
         <v>8642</v>
@@ -4656,16 +4665,16 @@
         <v>89</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>28</v>
@@ -4673,7 +4682,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>117</v>
@@ -4688,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="29" thickBot="1">
+    <row r="50" spans="1:15" ht="25.5" thickBot="1">
       <c r="A50" s="10" t="s">
         <v>113</v>
       </c>
@@ -4727,7 +4736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="29" thickBot="1">
+    <row r="51" spans="1:15" ht="25.5" thickBot="1">
       <c r="A51" s="10" t="s">
         <v>256</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="29" thickBot="1">
+    <row r="52" spans="1:15" ht="25.5" thickBot="1">
       <c r="A52" s="10" t="s">
         <v>137</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="29" thickBot="1">
+    <row r="53" spans="1:15" ht="25.5" thickBot="1">
       <c r="A53" s="10" t="s">
         <v>146</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>230</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>51</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -3028,9 +3028,17 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -449,7 +449,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="23.5" customWidth="1" min="3" max="3"/>
   </cols>
@@ -738,7 +738,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="25.33203125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -1464,7 +1464,7 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
     <col width="18.33203125" customWidth="1" min="1" max="1"/>
     <col width="17.6640625" customWidth="1" min="3" max="3"/>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -442,7 +442,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="23.5" customWidth="1" min="3" max="3"/>
   </cols>
@@ -731,7 +731,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.33203125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -1457,7 +1457,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" outlineLevelCol="0"/>
   <cols>
     <col width="18.33203125" customWidth="1" min="1" max="1"/>
     <col width="17.6640625" customWidth="1" min="3" max="3"/>
@@ -1591,7 +1591,7 @@
         <v>60</v>
       </c>
       <c r="N2" s="11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="11" t="n">
         <v>1</v>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -461,7 +461,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="23.453125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -750,7 +750,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.36328125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -1584,10 +1584,6 @@
           <t>T1234562</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>介紹財務管理的基本原則與工具，分析企業財務決策。</t>
@@ -1637,10 +1633,6 @@
           <t>T1234550</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
@@ -1700,8 +1692,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
@@ -1820,10 +1810,6 @@
           <t>T1234553</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>介紹國際貿易的基本概念、理論及實務操作。</t>
@@ -1873,10 +1859,6 @@
           <t>T1234553</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
@@ -1926,10 +1908,6 @@
           <t>B7654336</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
@@ -1979,10 +1957,6 @@
           <t>T1234558</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
@@ -2111,8 +2085,6 @@
           <t>A9876528</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
@@ -2172,8 +2144,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
@@ -2188,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -2233,8 +2203,6 @@
           <t>A9876530</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
@@ -2294,8 +2262,6 @@
           <t>A9876543</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
@@ -2355,8 +2321,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
@@ -2416,8 +2380,6 @@
           <t>A9876528</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
@@ -2477,8 +2439,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
@@ -2607,8 +2567,6 @@
           <t>A9876529</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
@@ -2668,8 +2626,6 @@
           <t>A9876534</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>本課程探討文化的形成、發展及其社會影響。</t>
@@ -2719,10 +2675,6 @@
           <t>T1234566</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
@@ -2782,8 +2734,6 @@
           <t>A9876543</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
@@ -2833,10 +2783,6 @@
           <t>B7654327</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
@@ -2851,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
@@ -2896,8 +2842,6 @@
           <t>A9876529</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
@@ -2957,8 +2901,6 @@
           <t>A9876536</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
@@ -3042,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
@@ -3087,8 +3029,6 @@
           <t>A9876535</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>本課程探討資訊倫理的基本原則與法律問題。</t>
@@ -3148,8 +3088,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
@@ -3209,8 +3147,6 @@
           <t>A9876533</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
@@ -3270,8 +3206,6 @@
           <t>A9876532</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
@@ -3321,10 +3255,6 @@
           <t>T1234562</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
@@ -3384,8 +3314,6 @@
           <t>A9876537</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>研究企業內部的行為模式及其對組織效能的影響。</t>
@@ -3400,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>3</v>
@@ -3445,8 +3373,6 @@
           <t>A9876542</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>探討環境科學的基本概念及環境問題的解決方案。</t>
@@ -3506,8 +3432,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>本課程探討行銷理論、策略及其實務應用。</t>
@@ -3567,8 +3491,6 @@
           <t>A9876527</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
@@ -3697,8 +3619,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
@@ -3758,8 +3678,6 @@
           <t>A9876533</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
@@ -3819,8 +3737,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
@@ -3835,7 +3751,7 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
         <v>1</v>
@@ -3880,8 +3796,6 @@
           <t>A9876534</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
@@ -3941,8 +3855,6 @@
           <t>A9876536</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
@@ -3957,7 +3869,7 @@
         <v>45</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O41" t="n">
         <v>3</v>
@@ -4002,8 +3914,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
@@ -4063,8 +3973,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
@@ -4114,10 +4022,6 @@
           <t>T1234555</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
@@ -4177,8 +4081,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
@@ -4193,7 +4095,7 @@
         <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
@@ -4228,10 +4130,6 @@
           <t>B7654321</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
@@ -4246,7 +4144,7 @@
         <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>2</v>
@@ -4281,10 +4179,6 @@
           <t>T1234566</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>探討心理健康的概念、心理疾病及其預防措施。</t>
@@ -4344,8 +4238,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
@@ -4405,8 +4297,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
@@ -4456,10 +4346,6 @@
           <t>T1234562</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
@@ -4519,8 +4405,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
@@ -4570,10 +4454,6 @@
           <t>T1234564</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
@@ -4588,7 +4468,7 @@
         <v>45</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O52" t="n">
         <v>2</v>
@@ -4633,8 +4513,6 @@
           <t>A9876531</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -461,7 +461,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="23.453125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -750,7 +750,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="25.36328125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B104</t>
+          <t>C222</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1582,6 +1582,26 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>T1234562</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1598,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -1633,6 +1653,10 @@
           <t>T1234550</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
@@ -1692,6 +1716,8 @@
           <t>A9876540</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
@@ -1810,6 +1836,10 @@
           <t>T1234553</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>介紹國際貿易的基本概念、理論及實務操作。</t>
@@ -1859,6 +1889,10 @@
           <t>T1234553</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
@@ -1908,6 +1942,10 @@
           <t>B7654336</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
@@ -1957,6 +1995,10 @@
           <t>T1234558</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
@@ -2085,6 +2127,8 @@
           <t>A9876528</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
@@ -2144,6 +2188,8 @@
           <t>A9876539</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
@@ -2203,6 +2249,8 @@
           <t>A9876530</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
@@ -2262,6 +2310,8 @@
           <t>A9876543</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
@@ -2321,6 +2371,8 @@
           <t>A9876541</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
@@ -2380,6 +2432,8 @@
           <t>A9876528</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
@@ -2439,6 +2493,8 @@
           <t>A9876541</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
@@ -2567,6 +2623,8 @@
           <t>A9876529</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
@@ -2626,6 +2684,8 @@
           <t>A9876534</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>本課程探討文化的形成、發展及其社會影響。</t>
@@ -2675,6 +2735,10 @@
           <t>T1234566</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
@@ -2734,6 +2798,8 @@
           <t>A9876543</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
@@ -2783,6 +2849,10 @@
           <t>B7654327</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
@@ -2842,6 +2912,8 @@
           <t>A9876529</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
@@ -2901,6 +2973,8 @@
           <t>A9876536</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
@@ -3029,6 +3103,8 @@
           <t>A9876535</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>本課程探討資訊倫理的基本原則與法律問題。</t>
@@ -3088,6 +3164,8 @@
           <t>A9876540</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
@@ -3147,6 +3225,8 @@
           <t>A9876533</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
@@ -3206,6 +3286,8 @@
           <t>A9876532</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
@@ -3255,6 +3337,10 @@
           <t>T1234562</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
@@ -3314,6 +3400,8 @@
           <t>A9876537</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>研究企業內部的行為模式及其對組織效能的影響。</t>
@@ -3373,6 +3461,8 @@
           <t>A9876542</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>探討環境科學的基本概念及環境問題的解決方案。</t>
@@ -3432,6 +3522,8 @@
           <t>A9876539</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>本課程探討行銷理論、策略及其實務應用。</t>
@@ -3491,6 +3583,8 @@
           <t>A9876527</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
@@ -3550,16 +3644,8 @@
           <t>A9876526</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
@@ -3574,7 +3660,7 @@
         <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>2</v>
@@ -3619,6 +3705,8 @@
           <t>A9876539</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
@@ -3678,6 +3766,8 @@
           <t>A9876533</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
@@ -3737,6 +3827,8 @@
           <t>A9876538</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
@@ -3796,6 +3888,8 @@
           <t>A9876534</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
@@ -3855,6 +3949,8 @@
           <t>A9876536</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
@@ -3914,6 +4010,8 @@
           <t>A9876540</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
@@ -3973,6 +4071,8 @@
           <t>A9876539</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
@@ -4022,6 +4122,10 @@
           <t>T1234555</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
@@ -4081,6 +4185,8 @@
           <t>A9876538</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
@@ -4130,6 +4236,10 @@
           <t>B7654321</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
@@ -4179,6 +4289,10 @@
           <t>T1234566</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>探討心理健康的概念、心理疾病及其預防措施。</t>
@@ -4238,6 +4352,8 @@
           <t>A9876540</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
@@ -4297,6 +4413,8 @@
           <t>A9876538</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
@@ -4346,6 +4464,10 @@
           <t>T1234562</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
@@ -4405,6 +4527,8 @@
           <t>A9876541</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
@@ -4454,6 +4578,10 @@
           <t>T1234564</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
@@ -4513,6 +4641,8 @@
           <t>A9876531</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>

--- a/資料庫.xlsx
+++ b/資料庫.xlsx
@@ -461,7 +461,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="23.453125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -750,7 +750,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="25.36328125" customWidth="1" min="3" max="3"/>
   </cols>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C222</t>
+          <t>C111</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1653,10 +1653,6 @@
           <t>T1234550</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>本課程介紹運動科學的基本理論，研究運動對人體的影響。</t>
@@ -1716,8 +1712,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>研究人類行為的基本理論與實驗方法，探討心理因素對行為的影響。</t>
@@ -1732,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -1836,10 +1830,6 @@
           <t>T1234553</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>介紹國際貿易的基本概念、理論及實務操作。</t>
@@ -1854,7 +1844,7 @@
         <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
@@ -1889,10 +1879,6 @@
           <t>T1234553</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>介紹虛擬實境的基本概念與技術，探討其在各領域的應用。</t>
@@ -1942,10 +1928,6 @@
           <t>B7654336</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>本課程探討供應鏈管理的基本概念，分析運營效率與成本控制。</t>
@@ -1995,10 +1977,6 @@
           <t>T1234558</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>研究餐飲業的管理技巧與實務，包括菜單設計與成本控制。</t>
@@ -2127,8 +2105,6 @@
           <t>A9876528</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>本課程介紹機械設計的基本原則，學習設計流程與技術。</t>
@@ -2188,8 +2164,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>本課程涵蓋演算法分析與設計，探討其在問題解決中的應用。</t>
@@ -2249,8 +2223,6 @@
           <t>A9876530</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>介紹心理學的基本理論、研究方法及應用範疇。</t>
@@ -2310,8 +2282,6 @@
           <t>A9876543</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>介紹程式設計的基本概念，涵蓋 Python 語言的基礎語法。</t>
@@ -2371,8 +2341,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>介紹藝術與文化的相互影響，涵蓋各種藝術形式。</t>
@@ -2432,8 +2400,6 @@
           <t>A9876528</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>介紹運動科學的基本概念，涵蓋生理學與心理學的應用。</t>
@@ -2493,8 +2459,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>介紹資訊安全的基本概念與技術，探討資料保護與風險管理。</t>
@@ -2623,8 +2587,6 @@
           <t>A9876529</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>透過分析與討論，增進學生對各種藝術作品的欣賞能力。</t>
@@ -2684,8 +2646,6 @@
           <t>A9876534</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>本課程探討文化的形成、發展及其社會影響。</t>
@@ -2735,10 +2695,6 @@
           <t>T1234566</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>本課程探討資料庫設計與管理，重點在 SQL 語言的應用。</t>
@@ -2798,8 +2754,6 @@
           <t>A9876543</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>本課程介紹人工智慧的基本概念及其應用，涵蓋機器學習技術。</t>
@@ -2849,10 +2803,6 @@
           <t>B7654327</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>探討數位行銷的策略與工具，幫助學生掌握數位時代的行銷技巧。</t>
@@ -2912,8 +2862,6 @@
           <t>A9876529</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>本課程介紹大數據的分析技術，探討數據挖掘與資料視覺化。</t>
@@ -2973,8 +2921,6 @@
           <t>A9876536</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>研究心理健康的基本概念，探討心理因素對健康的影響。</t>
@@ -3103,8 +3049,6 @@
           <t>A9876535</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>本課程探討資訊倫理的基本原則與法律問題。</t>
@@ -3164,8 +3108,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>研究國際政治的基本理論，分析全球事務中的重要議題與趨勢。</t>
@@ -3225,8 +3167,6 @@
           <t>A9876533</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>介紹 HTML、CSS 和 JavaScript，學習網頁設計與開發技巧。</t>
@@ -3286,8 +3226,6 @@
           <t>A9876532</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>本課程重點在於軟體測試技術與策略，提升軟體品質。</t>
@@ -3337,10 +3275,6 @@
           <t>T1234562</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>本課程介紹數學與統計的基本理論，學習數據分析技巧。</t>
@@ -3400,8 +3334,6 @@
           <t>A9876537</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>研究企業內部的行為模式及其對組織效能的影響。</t>
@@ -3461,8 +3393,6 @@
           <t>A9876542</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>探討環境科學的基本概念及環境問題的解決方案。</t>
@@ -3522,8 +3452,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>本課程探討行銷理論、策略及其實務應用。</t>
@@ -3583,8 +3511,6 @@
           <t>A9876527</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>研究數位行銷的工具與策略，涵蓋社群媒體與SEO等。</t>
@@ -3644,8 +3570,6 @@
           <t>A9876526</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>本課程探討物聯網技術的基本概念，涵蓋應用與安全性問題。</t>
@@ -3705,8 +3629,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>本課程介紹心理學的研究方法，學習如何設計與進行實驗。</t>
@@ -3766,8 +3688,6 @@
           <t>A9876533</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>介紹機器學習的基本理論，涵蓋監督與非監督學習的技巧。</t>
@@ -3827,8 +3747,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>本課程介紹財務管理的基本原則，強調資本運作與風險管理。</t>
@@ -3888,8 +3806,6 @@
           <t>A9876534</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>介紹企業在社會中的責任及其對企業運營的影響。</t>
@@ -3949,8 +3865,6 @@
           <t>A9876536</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>探討移動應用開發的流程與技術，學習 iOS 和 Android 開發。</t>
@@ -4010,8 +3924,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>研究文學作品的社會背景，探討文學與文化的關聯性。</t>
@@ -4071,8 +3983,6 @@
           <t>A9876539</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>研究心理學在教育中的應用，包括學習動機與教學策略。</t>
@@ -4122,10 +4032,6 @@
           <t>T1234555</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>透過音樂欣賞增進學生對不同音樂風格的了解與感受。</t>
@@ -4185,8 +4091,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>本課程涵蓋網頁設計的基本技巧，包括響應式設計的概念。</t>
@@ -4201,7 +4105,7 @@
         <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
@@ -4236,10 +4140,6 @@
           <t>B7654321</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>本課程介紹環境科學的基本概念，探討環境保護的重要性。</t>
@@ -4289,10 +4189,6 @@
           <t>T1234566</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>探討心理健康的概念、心理疾病及其預防措施。</t>
@@ -4352,8 +4248,6 @@
           <t>A9876540</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>本課程探討電子商務的運作模式與技術，分析其市場趨勢。</t>
@@ -4413,8 +4307,6 @@
           <t>A9876538</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>研究食品科學的基本概念，分析食品安全與品質管理。</t>
@@ -4464,10 +4356,6 @@
           <t>T1234562</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>介紹計算機網絡的基本概念與協定，涵蓋路由與網絡安全問題。</t>
@@ -4527,8 +4415,6 @@
           <t>A9876541</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>探討音樂在社會中的角色，分析音樂文化的影響與變遷。</t>
@@ -4578,10 +4464,6 @@
           <t>T1234564</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>介紹法律的基本概念、體系及其在社會中的角色。</t>
@@ -4641,8 +4523,6 @@
           <t>A9876531</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>本課程探討醫學領域中的倫理問題，增進學生的道德判斷能力。</t>
